--- a/Gantt_diagram_etel.xlsx
+++ b/Gantt_diagram_etel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kriszti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406DCFC-BDE0-4422-9DAB-0D9B77BC6F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5440E-F0F0-451F-B980-9D478702091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Étel</t>
   </si>
@@ -229,7 +229,13 @@
     <t>8.4.10. Foglalások kezelésének tesztelése</t>
   </si>
   <si>
-    <t>8.4.11. Prototípus kitelepítésének frissítése</t>
+    <t>202-11-20</t>
+  </si>
+  <si>
+    <t>8.4.12. Prototípus kitelepítésének frissítése</t>
+  </si>
+  <si>
+    <t>8.4.11. Admin jogosultsághoz tartozó profil oldal létrehozása</t>
   </si>
 </sst>
 </file>
@@ -348,15 +354,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="24">
@@ -663,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -852,21 +860,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,11 +883,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1379,8 +1423,8 @@
   <dimension ref="A1:CL1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3"/>
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BU51" sqref="BU51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1440,147 +1484,147 @@
       <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="85"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="6"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:90" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="20"/>
-      <c r="D3" s="84">
+      <c r="D3" s="81">
         <v>45551</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:90" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="81">
+      <c r="F4" s="83"/>
+      <c r="G4" s="78">
         <f>G5</f>
         <v>45551</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="81">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="78">
         <f>N5</f>
         <v>45558</v>
       </c>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="81">
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="78">
         <f>U5</f>
         <v>45565</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="81">
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="78">
         <f>AB5</f>
         <v>45572</v>
       </c>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="81">
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="78">
         <f>AI5</f>
         <v>45579</v>
       </c>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="81">
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="78">
         <f>AP5</f>
         <v>45586</v>
       </c>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="81">
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="78">
         <f>AW5</f>
         <v>45593</v>
       </c>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="81">
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="78">
         <f>BD5</f>
         <v>45600</v>
       </c>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="83"/>
-      <c r="BK4" s="81">
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="79"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="78">
         <f>BK5</f>
         <v>45607</v>
       </c>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="82"/>
-      <c r="BP4" s="82"/>
-      <c r="BQ4" s="83"/>
-      <c r="BR4" s="81">
+      <c r="BL4" s="79"/>
+      <c r="BM4" s="79"/>
+      <c r="BN4" s="79"/>
+      <c r="BO4" s="79"/>
+      <c r="BP4" s="79"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="78">
         <f>BR5</f>
         <v>45614</v>
       </c>
-      <c r="BS4" s="82"/>
-      <c r="BT4" s="82"/>
-      <c r="BU4" s="82"/>
-      <c r="BV4" s="82"/>
-      <c r="BW4" s="82"/>
-      <c r="BX4" s="83"/>
-      <c r="BY4" s="81">
+      <c r="BS4" s="79"/>
+      <c r="BT4" s="79"/>
+      <c r="BU4" s="79"/>
+      <c r="BV4" s="79"/>
+      <c r="BW4" s="79"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="78">
         <f>BY5</f>
         <v>45621</v>
       </c>
-      <c r="BZ4" s="82"/>
-      <c r="CA4" s="82"/>
-      <c r="CB4" s="82"/>
-      <c r="CC4" s="82"/>
-      <c r="CD4" s="82"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="81">
+      <c r="BZ4" s="79"/>
+      <c r="CA4" s="79"/>
+      <c r="CB4" s="79"/>
+      <c r="CC4" s="79"/>
+      <c r="CD4" s="79"/>
+      <c r="CE4" s="80"/>
+      <c r="CF4" s="78">
         <f>CF5</f>
         <v>45628</v>
       </c>
-      <c r="CG4" s="82"/>
-      <c r="CH4" s="82"/>
-      <c r="CI4" s="82"/>
-      <c r="CJ4" s="82"/>
-      <c r="CK4" s="82"/>
-      <c r="CL4" s="83"/>
+      <c r="CG4" s="79"/>
+      <c r="CH4" s="79"/>
+      <c r="CI4" s="79"/>
+      <c r="CJ4" s="79"/>
+      <c r="CK4" s="79"/>
+      <c r="CL4" s="80"/>
     </row>
     <row r="5" spans="1:90" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -1596,7 +1640,7 @@
       <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45551</v>
@@ -5598,7 +5642,7 @@
       <c r="BV42" s="30"/>
       <c r="BW42" s="38"/>
       <c r="BX42" s="38"/>
-      <c r="BY42" s="38"/>
+      <c r="BY42" s="30"/>
       <c r="BZ42" s="30"/>
       <c r="CA42" s="30"/>
       <c r="CB42" s="30"/>
@@ -5698,7 +5742,7 @@
       <c r="BV43" s="30"/>
       <c r="BW43" s="38"/>
       <c r="BX43" s="38"/>
-      <c r="BY43" s="38"/>
+      <c r="BY43" s="30"/>
       <c r="BZ43" s="30"/>
       <c r="CA43" s="30"/>
       <c r="CB43" s="30"/>
@@ -5798,7 +5842,7 @@
       <c r="BV44" s="30"/>
       <c r="BW44" s="38"/>
       <c r="BX44" s="38"/>
-      <c r="BY44" s="38"/>
+      <c r="BY44" s="30"/>
       <c r="BZ44" s="30"/>
       <c r="CA44" s="30"/>
       <c r="CB44" s="30"/>
@@ -5898,7 +5942,7 @@
       <c r="BV45" s="30"/>
       <c r="BW45" s="38"/>
       <c r="BX45" s="38"/>
-      <c r="BY45" s="38"/>
+      <c r="BY45" s="30"/>
       <c r="BZ45" s="30"/>
       <c r="CA45" s="30"/>
       <c r="CB45" s="30"/>
@@ -5998,7 +6042,7 @@
       <c r="BV46" s="30"/>
       <c r="BW46" s="38"/>
       <c r="BX46" s="38"/>
-      <c r="BY46" s="38"/>
+      <c r="BY46" s="30"/>
       <c r="BZ46" s="30"/>
       <c r="CA46" s="30"/>
       <c r="CB46" s="30"/>
@@ -6098,7 +6142,7 @@
       <c r="BV47" s="30"/>
       <c r="BW47" s="38"/>
       <c r="BX47" s="38"/>
-      <c r="BY47" s="38"/>
+      <c r="BY47" s="30"/>
       <c r="BZ47" s="30"/>
       <c r="CA47" s="30"/>
       <c r="CB47" s="30"/>
@@ -6198,7 +6242,7 @@
       <c r="BV48" s="30"/>
       <c r="BW48" s="38"/>
       <c r="BX48" s="38"/>
-      <c r="BY48" s="38"/>
+      <c r="BY48" s="30"/>
       <c r="BZ48" s="30"/>
       <c r="CA48" s="30"/>
       <c r="CB48" s="30"/>
@@ -6298,7 +6342,7 @@
       <c r="BV49" s="30"/>
       <c r="BW49" s="38"/>
       <c r="BX49" s="38"/>
-      <c r="BY49" s="38"/>
+      <c r="BY49" s="30"/>
       <c r="BZ49" s="30"/>
       <c r="CA49" s="30"/>
       <c r="CB49" s="30"/>
@@ -6343,7 +6387,7 @@
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
       <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
+      <c r="V50" s="86"/>
       <c r="W50" s="30"/>
       <c r="X50" s="30"/>
       <c r="Y50" s="30"/>
@@ -6398,7 +6442,7 @@
       <c r="BV50" s="30"/>
       <c r="BW50" s="38"/>
       <c r="BX50" s="38"/>
-      <c r="BY50" s="38"/>
+      <c r="BY50" s="30"/>
       <c r="BZ50" s="30"/>
       <c r="CA50" s="30"/>
       <c r="CB50" s="30"/>
@@ -6413,7 +6457,7 @@
       <c r="CK50" s="38"/>
       <c r="CL50" s="38"/>
     </row>
-    <row r="51" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="68" t="s">
         <v>60</v>
@@ -6498,7 +6542,7 @@
       <c r="BV51" s="30"/>
       <c r="BW51" s="38"/>
       <c r="BX51" s="38"/>
-      <c r="BY51" s="38"/>
+      <c r="BY51" s="30"/>
       <c r="BZ51" s="30"/>
       <c r="CA51" s="30"/>
       <c r="CB51" s="30"/>
@@ -6513,19 +6557,19 @@
       <c r="CK51" s="38"/>
       <c r="CL51" s="38"/>
     </row>
-    <row r="52" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D52" s="70">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="E52" s="70">
-        <v>45616</v>
+        <v>45615</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="30"/>
@@ -6591,14 +6635,14 @@
       <c r="BO52" s="30"/>
       <c r="BP52" s="38"/>
       <c r="BQ52" s="38"/>
-      <c r="BR52" s="30"/>
-      <c r="BS52" s="30"/>
-      <c r="BT52" s="51"/>
+      <c r="BR52" s="40"/>
+      <c r="BS52" s="40"/>
+      <c r="BT52" s="30"/>
       <c r="BU52" s="30"/>
       <c r="BV52" s="30"/>
       <c r="BW52" s="38"/>
       <c r="BX52" s="38"/>
-      <c r="BY52" s="38"/>
+      <c r="BY52" s="30"/>
       <c r="BZ52" s="30"/>
       <c r="CA52" s="30"/>
       <c r="CB52" s="30"/>
@@ -6613,4843 +6657,4938 @@
       <c r="CK52" s="38"/>
       <c r="CL52" s="38"/>
     </row>
-    <row r="53" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="76"/>
+      <c r="B53" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="85">
+        <v>45616</v>
+      </c>
       <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
-      <c r="AQ53" s="34"/>
-      <c r="AR53" s="34"/>
-      <c r="AS53" s="34"/>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="34"/>
-      <c r="AV53" s="34"/>
-      <c r="AW53" s="34"/>
-      <c r="AX53" s="34"/>
-      <c r="AY53" s="34"/>
-      <c r="AZ53" s="34"/>
-      <c r="BA53" s="34"/>
-      <c r="BB53" s="34"/>
-      <c r="BC53" s="34"/>
-      <c r="BD53" s="34"/>
-      <c r="BE53" s="34"/>
-      <c r="BF53" s="34"/>
-      <c r="BG53" s="34"/>
-      <c r="BH53" s="34"/>
-      <c r="BI53" s="34"/>
-      <c r="BJ53" s="34"/>
-      <c r="BK53" s="34"/>
-      <c r="BL53" s="34"/>
-      <c r="BM53" s="34"/>
-      <c r="BN53" s="34"/>
-      <c r="BO53" s="34"/>
-      <c r="BP53" s="34"/>
-      <c r="BQ53" s="34"/>
-      <c r="BR53" s="34"/>
-      <c r="BS53" s="34"/>
-      <c r="BT53" s="34"/>
-      <c r="BU53" s="34"/>
-      <c r="BV53" s="34"/>
-      <c r="BW53" s="34"/>
-      <c r="BX53" s="34"/>
-      <c r="BY53" s="34"/>
-      <c r="BZ53" s="34"/>
-      <c r="CA53" s="34"/>
-      <c r="CB53" s="34"/>
-      <c r="CC53" s="34"/>
-      <c r="CD53" s="34"/>
-      <c r="CE53" s="34"/>
-      <c r="CF53" s="34"/>
-      <c r="CG53" s="34"/>
-      <c r="CH53" s="34"/>
-      <c r="CI53" s="34"/>
-      <c r="CJ53" s="34"/>
-      <c r="CK53" s="34"/>
-      <c r="CL53" s="34"/>
-    </row>
-    <row r="54" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="38"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="38"/>
+      <c r="AO53" s="38"/>
+      <c r="AP53" s="30"/>
+      <c r="AQ53" s="30"/>
+      <c r="AR53" s="30"/>
+      <c r="AS53" s="30"/>
+      <c r="AT53" s="30"/>
+      <c r="AU53" s="38"/>
+      <c r="AV53" s="38"/>
+      <c r="AW53" s="30"/>
+      <c r="AX53" s="30"/>
+      <c r="AY53" s="30"/>
+      <c r="AZ53" s="30"/>
+      <c r="BA53" s="30"/>
+      <c r="BB53" s="38"/>
+      <c r="BC53" s="38"/>
+      <c r="BD53" s="30"/>
+      <c r="BE53" s="30"/>
+      <c r="BF53" s="30"/>
+      <c r="BG53" s="30"/>
+      <c r="BH53" s="30"/>
+      <c r="BI53" s="38"/>
+      <c r="BJ53" s="38"/>
+      <c r="BK53" s="30"/>
+      <c r="BL53" s="30"/>
+      <c r="BM53" s="30"/>
+      <c r="BN53" s="30"/>
+      <c r="BO53" s="30"/>
+      <c r="BP53" s="38"/>
+      <c r="BQ53" s="38"/>
+      <c r="BR53" s="30"/>
+      <c r="BS53" s="30"/>
+      <c r="BT53" s="51"/>
+      <c r="BU53" s="30"/>
+      <c r="BV53" s="30"/>
+      <c r="BW53" s="38"/>
+      <c r="BX53" s="38"/>
+      <c r="BY53" s="30"/>
+      <c r="BZ53" s="30"/>
+      <c r="CA53" s="30"/>
+      <c r="CB53" s="30"/>
+      <c r="CC53" s="30"/>
+      <c r="CD53" s="38"/>
+      <c r="CE53" s="38"/>
+      <c r="CF53" s="30"/>
+      <c r="CG53" s="30"/>
+      <c r="CH53" s="30"/>
+      <c r="CI53" s="30"/>
+      <c r="CJ53" s="30"/>
+      <c r="CK53" s="38"/>
+      <c r="CL53" s="38"/>
+    </row>
+    <row r="54" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="17"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="21"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="73"/>
+      <c r="AF54" s="73"/>
+      <c r="AG54" s="73"/>
+      <c r="AH54" s="73"/>
+      <c r="AI54" s="73"/>
+      <c r="AJ54" s="73"/>
+      <c r="AK54" s="73"/>
+      <c r="AL54" s="73"/>
+      <c r="AM54" s="73"/>
+      <c r="AN54" s="73"/>
+      <c r="AO54" s="73"/>
+      <c r="AP54" s="73"/>
+      <c r="AQ54" s="73"/>
+      <c r="AR54" s="73"/>
+      <c r="AS54" s="73"/>
+      <c r="AT54" s="73"/>
+      <c r="AU54" s="73"/>
+      <c r="AV54" s="73"/>
+      <c r="AW54" s="73"/>
+      <c r="AX54" s="73"/>
+      <c r="AY54" s="73"/>
+      <c r="AZ54" s="73"/>
+      <c r="BA54" s="73"/>
+      <c r="BB54" s="73"/>
+      <c r="BC54" s="73"/>
+      <c r="BD54" s="73"/>
+      <c r="BE54" s="73"/>
+      <c r="BF54" s="73"/>
+      <c r="BG54" s="73"/>
+      <c r="BH54" s="73"/>
+      <c r="BI54" s="73"/>
+      <c r="BJ54" s="73"/>
+      <c r="BK54" s="73"/>
+      <c r="BL54" s="73"/>
+      <c r="BM54" s="73"/>
+      <c r="BN54" s="73"/>
+      <c r="BO54" s="73"/>
+      <c r="BP54" s="73"/>
+      <c r="BQ54" s="73"/>
+      <c r="BR54" s="73"/>
+      <c r="BS54" s="73"/>
+      <c r="BT54" s="73"/>
+      <c r="BU54" s="73"/>
+      <c r="BV54" s="73"/>
+      <c r="BW54" s="73"/>
+      <c r="BX54" s="73"/>
+      <c r="BY54" s="73"/>
+      <c r="BZ54" s="73"/>
+      <c r="CA54" s="73"/>
+      <c r="CB54" s="73"/>
+      <c r="CC54" s="73"/>
+      <c r="CD54" s="73"/>
+      <c r="CE54" s="73"/>
+      <c r="CF54" s="73"/>
+      <c r="CG54" s="73"/>
+      <c r="CH54" s="73"/>
+      <c r="CI54" s="73"/>
+      <c r="CJ54" s="73"/>
+      <c r="CK54" s="73"/>
+      <c r="CL54" s="73"/>
     </row>
     <row r="55" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="79"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="76"/>
     </row>
     <row r="56" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17"/>
-      <c r="D57" s="77"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17"/>
-      <c r="D58" s="77"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17"/>
-      <c r="D59" s="77"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="21"/>
     </row>
     <row r="60" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17"/>
-      <c r="D60" s="77"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="21"/>
     </row>
     <row r="61" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17"/>
-      <c r="D61" s="77"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17"/>
-      <c r="D62" s="77"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17"/>
-      <c r="D63" s="77"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17"/>
-      <c r="D64" s="77"/>
+      <c r="D64" s="74"/>
       <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17"/>
-      <c r="D65" s="77"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17"/>
-      <c r="D66" s="77"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17"/>
-      <c r="D67" s="77"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17"/>
-      <c r="D68" s="77"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17"/>
-      <c r="D69" s="77"/>
+      <c r="D69" s="74"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17"/>
-      <c r="D70" s="77"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17"/>
-      <c r="D71" s="77"/>
+      <c r="D71" s="74"/>
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17"/>
-      <c r="D72" s="77"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17"/>
-      <c r="D73" s="77"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17"/>
-      <c r="D74" s="77"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17"/>
-      <c r="D75" s="77"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17"/>
-      <c r="D76" s="77"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17"/>
-      <c r="D77" s="77"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17"/>
-      <c r="D78" s="77"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17"/>
-      <c r="D79" s="77"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17"/>
-      <c r="D80" s="77"/>
+      <c r="D80" s="74"/>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17"/>
-      <c r="D81" s="77"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17"/>
-      <c r="D82" s="77"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17"/>
-      <c r="D83" s="77"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17"/>
-      <c r="D84" s="77"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17"/>
-      <c r="D85" s="77"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="17"/>
-      <c r="D86" s="77"/>
+      <c r="D86" s="74"/>
       <c r="E86" s="21"/>
     </row>
     <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17"/>
-      <c r="D87" s="77"/>
+      <c r="D87" s="74"/>
       <c r="E87" s="21"/>
     </row>
     <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17"/>
-      <c r="D88" s="77"/>
+      <c r="D88" s="74"/>
       <c r="E88" s="21"/>
     </row>
     <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17"/>
-      <c r="D89" s="77"/>
+      <c r="D89" s="74"/>
       <c r="E89" s="21"/>
     </row>
     <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
-      <c r="D90" s="77"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="21"/>
     </row>
     <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
-      <c r="D91" s="77"/>
+      <c r="D91" s="74"/>
       <c r="E91" s="21"/>
     </row>
     <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
-      <c r="D92" s="77"/>
+      <c r="D92" s="74"/>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
-      <c r="D93" s="77"/>
+      <c r="D93" s="74"/>
       <c r="E93" s="21"/>
     </row>
     <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
-      <c r="D94" s="77"/>
+      <c r="D94" s="74"/>
       <c r="E94" s="21"/>
     </row>
     <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
-      <c r="D95" s="77"/>
+      <c r="D95" s="74"/>
       <c r="E95" s="21"/>
     </row>
     <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="17"/>
-      <c r="D96" s="77"/>
+      <c r="D96" s="74"/>
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17"/>
-      <c r="D97" s="77"/>
+      <c r="D97" s="74"/>
       <c r="E97" s="21"/>
     </row>
     <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17"/>
-      <c r="D98" s="77"/>
+      <c r="D98" s="74"/>
       <c r="E98" s="21"/>
     </row>
     <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="17"/>
-      <c r="D99" s="77"/>
+      <c r="D99" s="74"/>
       <c r="E99" s="21"/>
     </row>
     <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="17"/>
-      <c r="D100" s="77"/>
+      <c r="D100" s="74"/>
       <c r="E100" s="21"/>
     </row>
     <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17"/>
-      <c r="D101" s="77"/>
+      <c r="D101" s="74"/>
       <c r="E101" s="21"/>
     </row>
     <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17"/>
-      <c r="D102" s="77"/>
+      <c r="D102" s="74"/>
       <c r="E102" s="21"/>
     </row>
     <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="17"/>
-      <c r="D103" s="77"/>
+      <c r="D103" s="74"/>
       <c r="E103" s="21"/>
     </row>
     <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="17"/>
-      <c r="D104" s="77"/>
+      <c r="D104" s="74"/>
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="17"/>
-      <c r="D105" s="77"/>
+      <c r="D105" s="74"/>
       <c r="E105" s="21"/>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="17"/>
-      <c r="D106" s="77"/>
+      <c r="D106" s="74"/>
       <c r="E106" s="21"/>
     </row>
     <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17"/>
-      <c r="D107" s="77"/>
+      <c r="D107" s="74"/>
       <c r="E107" s="21"/>
     </row>
     <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17"/>
-      <c r="D108" s="77"/>
+      <c r="D108" s="74"/>
       <c r="E108" s="21"/>
     </row>
     <row r="109" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="17"/>
-      <c r="D109" s="77"/>
+      <c r="D109" s="74"/>
       <c r="E109" s="21"/>
     </row>
     <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="17"/>
-      <c r="D110" s="77"/>
+      <c r="D110" s="74"/>
       <c r="E110" s="21"/>
     </row>
     <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17"/>
-      <c r="D111" s="77"/>
+      <c r="D111" s="74"/>
       <c r="E111" s="21"/>
     </row>
     <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="17"/>
-      <c r="D112" s="77"/>
+      <c r="D112" s="74"/>
       <c r="E112" s="21"/>
     </row>
     <row r="113" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="17"/>
-      <c r="D113" s="77"/>
+      <c r="D113" s="74"/>
       <c r="E113" s="21"/>
     </row>
     <row r="114" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="17"/>
-      <c r="D114" s="77"/>
+      <c r="D114" s="74"/>
       <c r="E114" s="21"/>
     </row>
     <row r="115" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="17"/>
-      <c r="D115" s="77"/>
+      <c r="D115" s="74"/>
       <c r="E115" s="21"/>
     </row>
     <row r="116" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="17"/>
-      <c r="D116" s="77"/>
+      <c r="D116" s="74"/>
       <c r="E116" s="21"/>
     </row>
     <row r="117" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="17"/>
-      <c r="D117" s="77"/>
+      <c r="D117" s="74"/>
       <c r="E117" s="21"/>
     </row>
     <row r="118" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="17"/>
-      <c r="D118" s="77"/>
+      <c r="D118" s="74"/>
       <c r="E118" s="21"/>
     </row>
     <row r="119" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="17"/>
-      <c r="D119" s="77"/>
+      <c r="D119" s="74"/>
       <c r="E119" s="21"/>
     </row>
     <row r="120" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17"/>
-      <c r="D120" s="77"/>
+      <c r="D120" s="74"/>
       <c r="E120" s="21"/>
     </row>
     <row r="121" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="17"/>
-      <c r="D121" s="77"/>
+      <c r="D121" s="74"/>
       <c r="E121" s="21"/>
     </row>
     <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="17"/>
-      <c r="D122" s="77"/>
+      <c r="D122" s="74"/>
       <c r="E122" s="21"/>
     </row>
     <row r="123" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17"/>
-      <c r="D123" s="77"/>
+      <c r="D123" s="74"/>
       <c r="E123" s="21"/>
     </row>
     <row r="124" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="17"/>
-      <c r="D124" s="77"/>
+      <c r="D124" s="74"/>
       <c r="E124" s="21"/>
     </row>
     <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="17"/>
-      <c r="D125" s="77"/>
+      <c r="D125" s="74"/>
       <c r="E125" s="21"/>
     </row>
     <row r="126" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="17"/>
-      <c r="D126" s="77"/>
+      <c r="D126" s="74"/>
       <c r="E126" s="21"/>
     </row>
     <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="17"/>
-      <c r="D127" s="77"/>
+      <c r="D127" s="74"/>
       <c r="E127" s="21"/>
     </row>
     <row r="128" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="17"/>
-      <c r="D128" s="77"/>
+      <c r="D128" s="74"/>
       <c r="E128" s="21"/>
     </row>
     <row r="129" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="17"/>
-      <c r="D129" s="77"/>
+      <c r="D129" s="74"/>
       <c r="E129" s="21"/>
     </row>
     <row r="130" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="17"/>
-      <c r="D130" s="77"/>
+      <c r="D130" s="74"/>
       <c r="E130" s="21"/>
     </row>
     <row r="131" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="17"/>
-      <c r="D131" s="77"/>
+      <c r="D131" s="74"/>
       <c r="E131" s="21"/>
     </row>
     <row r="132" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17"/>
-      <c r="D132" s="77"/>
+      <c r="D132" s="74"/>
       <c r="E132" s="21"/>
     </row>
     <row r="133" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="17"/>
-      <c r="D133" s="77"/>
+      <c r="D133" s="74"/>
       <c r="E133" s="21"/>
     </row>
     <row r="134" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="17"/>
-      <c r="D134" s="77"/>
+      <c r="D134" s="74"/>
       <c r="E134" s="21"/>
     </row>
     <row r="135" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="17"/>
-      <c r="D135" s="77"/>
+      <c r="D135" s="74"/>
       <c r="E135" s="21"/>
     </row>
     <row r="136" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="17"/>
-      <c r="D136" s="77"/>
+      <c r="D136" s="74"/>
       <c r="E136" s="21"/>
     </row>
     <row r="137" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="17"/>
-      <c r="D137" s="77"/>
+      <c r="D137" s="74"/>
       <c r="E137" s="21"/>
     </row>
     <row r="138" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="17"/>
-      <c r="D138" s="77"/>
+      <c r="D138" s="74"/>
       <c r="E138" s="21"/>
     </row>
     <row r="139" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="17"/>
-      <c r="D139" s="77"/>
+      <c r="D139" s="74"/>
       <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="17"/>
-      <c r="D140" s="77"/>
+      <c r="D140" s="74"/>
       <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="17"/>
-      <c r="D141" s="77"/>
+      <c r="D141" s="74"/>
       <c r="E141" s="21"/>
     </row>
     <row r="142" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="17"/>
-      <c r="D142" s="77"/>
+      <c r="D142" s="74"/>
       <c r="E142" s="21"/>
     </row>
     <row r="143" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="17"/>
-      <c r="D143" s="77"/>
+      <c r="D143" s="74"/>
       <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="17"/>
-      <c r="D144" s="77"/>
+      <c r="D144" s="74"/>
       <c r="E144" s="21"/>
     </row>
     <row r="145" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17"/>
-      <c r="D145" s="77"/>
+      <c r="D145" s="74"/>
       <c r="E145" s="21"/>
     </row>
     <row r="146" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="17"/>
-      <c r="D146" s="77"/>
+      <c r="D146" s="74"/>
       <c r="E146" s="21"/>
     </row>
     <row r="147" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="17"/>
-      <c r="D147" s="77"/>
+      <c r="D147" s="74"/>
       <c r="E147" s="21"/>
     </row>
     <row r="148" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="17"/>
-      <c r="D148" s="77"/>
+      <c r="D148" s="74"/>
       <c r="E148" s="21"/>
     </row>
     <row r="149" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="17"/>
-      <c r="D149" s="77"/>
+      <c r="D149" s="74"/>
       <c r="E149" s="21"/>
     </row>
     <row r="150" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="17"/>
-      <c r="D150" s="77"/>
+      <c r="D150" s="74"/>
       <c r="E150" s="21"/>
     </row>
     <row r="151" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17"/>
-      <c r="D151" s="77"/>
+      <c r="D151" s="74"/>
       <c r="E151" s="21"/>
     </row>
     <row r="152" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="17"/>
-      <c r="D152" s="77"/>
+      <c r="D152" s="74"/>
       <c r="E152" s="21"/>
     </row>
     <row r="153" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="17"/>
-      <c r="D153" s="77"/>
+      <c r="D153" s="74"/>
       <c r="E153" s="21"/>
     </row>
     <row r="154" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="17"/>
-      <c r="D154" s="77"/>
+      <c r="D154" s="74"/>
       <c r="E154" s="21"/>
     </row>
     <row r="155" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="17"/>
-      <c r="D155" s="77"/>
+      <c r="D155" s="74"/>
       <c r="E155" s="21"/>
     </row>
     <row r="156" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="17"/>
-      <c r="D156" s="77"/>
+      <c r="D156" s="74"/>
       <c r="E156" s="21"/>
     </row>
     <row r="157" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="17"/>
-      <c r="D157" s="77"/>
+      <c r="D157" s="74"/>
       <c r="E157" s="21"/>
     </row>
     <row r="158" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="17"/>
-      <c r="D158" s="77"/>
+      <c r="D158" s="74"/>
       <c r="E158" s="21"/>
     </row>
     <row r="159" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="17"/>
-      <c r="D159" s="77"/>
+      <c r="D159" s="74"/>
       <c r="E159" s="21"/>
     </row>
     <row r="160" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="17"/>
-      <c r="D160" s="77"/>
+      <c r="D160" s="74"/>
       <c r="E160" s="21"/>
     </row>
     <row r="161" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="17"/>
-      <c r="D161" s="77"/>
+      <c r="D161" s="74"/>
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="17"/>
-      <c r="D162" s="77"/>
+      <c r="D162" s="74"/>
       <c r="E162" s="21"/>
     </row>
     <row r="163" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="17"/>
-      <c r="D163" s="77"/>
+      <c r="D163" s="74"/>
       <c r="E163" s="21"/>
     </row>
     <row r="164" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="17"/>
-      <c r="D164" s="77"/>
+      <c r="D164" s="74"/>
       <c r="E164" s="21"/>
     </row>
     <row r="165" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="17"/>
-      <c r="D165" s="77"/>
+      <c r="D165" s="74"/>
       <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="17"/>
-      <c r="D166" s="77"/>
+      <c r="D166" s="74"/>
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="17"/>
-      <c r="D167" s="77"/>
+      <c r="D167" s="74"/>
       <c r="E167" s="21"/>
     </row>
     <row r="168" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="17"/>
-      <c r="D168" s="77"/>
+      <c r="D168" s="74"/>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="17"/>
-      <c r="D169" s="77"/>
+      <c r="D169" s="74"/>
       <c r="E169" s="21"/>
     </row>
     <row r="170" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="17"/>
-      <c r="D170" s="77"/>
+      <c r="D170" s="74"/>
       <c r="E170" s="21"/>
     </row>
     <row r="171" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="17"/>
-      <c r="D171" s="77"/>
+      <c r="D171" s="74"/>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="17"/>
-      <c r="D172" s="77"/>
+      <c r="D172" s="74"/>
       <c r="E172" s="21"/>
     </row>
     <row r="173" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="17"/>
-      <c r="D173" s="77"/>
+      <c r="D173" s="74"/>
       <c r="E173" s="21"/>
     </row>
     <row r="174" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="17"/>
-      <c r="D174" s="77"/>
+      <c r="D174" s="74"/>
       <c r="E174" s="21"/>
     </row>
     <row r="175" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="17"/>
-      <c r="D175" s="77"/>
+      <c r="D175" s="74"/>
       <c r="E175" s="21"/>
     </row>
     <row r="176" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="17"/>
-      <c r="D176" s="77"/>
+      <c r="D176" s="74"/>
       <c r="E176" s="21"/>
     </row>
     <row r="177" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="17"/>
-      <c r="D177" s="77"/>
+      <c r="D177" s="74"/>
       <c r="E177" s="21"/>
     </row>
     <row r="178" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="17"/>
-      <c r="D178" s="77"/>
+      <c r="D178" s="74"/>
       <c r="E178" s="21"/>
     </row>
     <row r="179" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="17"/>
-      <c r="D179" s="77"/>
+      <c r="D179" s="74"/>
       <c r="E179" s="21"/>
     </row>
     <row r="180" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="17"/>
-      <c r="D180" s="77"/>
+      <c r="D180" s="74"/>
       <c r="E180" s="21"/>
     </row>
     <row r="181" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="17"/>
-      <c r="D181" s="77"/>
+      <c r="D181" s="74"/>
       <c r="E181" s="21"/>
     </row>
     <row r="182" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="17"/>
-      <c r="D182" s="77"/>
+      <c r="D182" s="74"/>
       <c r="E182" s="21"/>
     </row>
     <row r="183" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="17"/>
-      <c r="D183" s="77"/>
+      <c r="D183" s="74"/>
       <c r="E183" s="21"/>
     </row>
     <row r="184" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="17"/>
-      <c r="D184" s="77"/>
+      <c r="D184" s="74"/>
       <c r="E184" s="21"/>
     </row>
     <row r="185" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="17"/>
-      <c r="D185" s="77"/>
+      <c r="D185" s="74"/>
       <c r="E185" s="21"/>
     </row>
     <row r="186" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="17"/>
-      <c r="D186" s="77"/>
+      <c r="D186" s="74"/>
       <c r="E186" s="21"/>
     </row>
     <row r="187" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="17"/>
-      <c r="D187" s="77"/>
+      <c r="D187" s="74"/>
       <c r="E187" s="21"/>
     </row>
     <row r="188" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="17"/>
-      <c r="D188" s="77"/>
+      <c r="D188" s="74"/>
       <c r="E188" s="21"/>
     </row>
     <row r="189" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="17"/>
-      <c r="D189" s="77"/>
+      <c r="D189" s="74"/>
       <c r="E189" s="21"/>
     </row>
     <row r="190" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="17"/>
-      <c r="D190" s="77"/>
+      <c r="D190" s="74"/>
       <c r="E190" s="21"/>
     </row>
     <row r="191" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="17"/>
-      <c r="D191" s="77"/>
+      <c r="D191" s="74"/>
       <c r="E191" s="21"/>
     </row>
     <row r="192" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="17"/>
-      <c r="D192" s="77"/>
+      <c r="D192" s="74"/>
       <c r="E192" s="21"/>
     </row>
     <row r="193" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="17"/>
-      <c r="D193" s="77"/>
+      <c r="D193" s="74"/>
       <c r="E193" s="21"/>
     </row>
     <row r="194" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="17"/>
-      <c r="D194" s="77"/>
+      <c r="D194" s="74"/>
       <c r="E194" s="21"/>
     </row>
     <row r="195" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="17"/>
-      <c r="D195" s="77"/>
+      <c r="D195" s="74"/>
       <c r="E195" s="21"/>
     </row>
     <row r="196" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="17"/>
-      <c r="D196" s="77"/>
+      <c r="D196" s="74"/>
       <c r="E196" s="21"/>
     </row>
     <row r="197" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="17"/>
-      <c r="D197" s="77"/>
+      <c r="D197" s="74"/>
       <c r="E197" s="21"/>
     </row>
     <row r="198" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="17"/>
-      <c r="D198" s="77"/>
+      <c r="D198" s="74"/>
       <c r="E198" s="21"/>
     </row>
     <row r="199" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="17"/>
-      <c r="D199" s="77"/>
+      <c r="D199" s="74"/>
       <c r="E199" s="21"/>
     </row>
     <row r="200" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="17"/>
-      <c r="D200" s="77"/>
+      <c r="D200" s="74"/>
       <c r="E200" s="21"/>
     </row>
     <row r="201" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="17"/>
-      <c r="D201" s="77"/>
+      <c r="D201" s="74"/>
       <c r="E201" s="21"/>
     </row>
     <row r="202" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="17"/>
-      <c r="D202" s="77"/>
+      <c r="D202" s="74"/>
       <c r="E202" s="21"/>
     </row>
     <row r="203" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="17"/>
-      <c r="D203" s="77"/>
+      <c r="D203" s="74"/>
       <c r="E203" s="21"/>
     </row>
     <row r="204" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="17"/>
-      <c r="D204" s="77"/>
+      <c r="D204" s="74"/>
       <c r="E204" s="21"/>
     </row>
     <row r="205" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="17"/>
-      <c r="D205" s="77"/>
+      <c r="D205" s="74"/>
       <c r="E205" s="21"/>
     </row>
     <row r="206" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="17"/>
-      <c r="D206" s="77"/>
+      <c r="D206" s="74"/>
       <c r="E206" s="21"/>
     </row>
     <row r="207" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="17"/>
-      <c r="D207" s="77"/>
+      <c r="D207" s="74"/>
       <c r="E207" s="21"/>
     </row>
     <row r="208" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="17"/>
-      <c r="D208" s="77"/>
+      <c r="D208" s="74"/>
       <c r="E208" s="21"/>
     </row>
     <row r="209" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="17"/>
-      <c r="D209" s="77"/>
+      <c r="D209" s="74"/>
       <c r="E209" s="21"/>
     </row>
     <row r="210" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="17"/>
-      <c r="D210" s="77"/>
+      <c r="D210" s="74"/>
       <c r="E210" s="21"/>
     </row>
     <row r="211" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="17"/>
-      <c r="D211" s="77"/>
+      <c r="D211" s="74"/>
       <c r="E211" s="21"/>
     </row>
     <row r="212" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="17"/>
-      <c r="D212" s="77"/>
+      <c r="D212" s="74"/>
       <c r="E212" s="21"/>
     </row>
     <row r="213" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="17"/>
-      <c r="D213" s="77"/>
+      <c r="D213" s="74"/>
       <c r="E213" s="21"/>
     </row>
     <row r="214" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="17"/>
-      <c r="D214" s="77"/>
+      <c r="D214" s="74"/>
       <c r="E214" s="21"/>
     </row>
     <row r="215" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="17"/>
-      <c r="D215" s="77"/>
+      <c r="D215" s="74"/>
       <c r="E215" s="21"/>
     </row>
     <row r="216" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="17"/>
-      <c r="D216" s="77"/>
+      <c r="D216" s="74"/>
       <c r="E216" s="21"/>
     </row>
     <row r="217" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="17"/>
-      <c r="D217" s="77"/>
+      <c r="D217" s="74"/>
       <c r="E217" s="21"/>
     </row>
     <row r="218" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="17"/>
-      <c r="D218" s="77"/>
+      <c r="D218" s="74"/>
       <c r="E218" s="21"/>
     </row>
     <row r="219" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="17"/>
-      <c r="D219" s="77"/>
+      <c r="D219" s="74"/>
       <c r="E219" s="21"/>
     </row>
     <row r="220" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="17"/>
-      <c r="D220" s="77"/>
+      <c r="D220" s="74"/>
       <c r="E220" s="21"/>
     </row>
     <row r="221" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="17"/>
-      <c r="D221" s="77"/>
+      <c r="D221" s="74"/>
       <c r="E221" s="21"/>
     </row>
     <row r="222" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="17"/>
-      <c r="D222" s="77"/>
+      <c r="D222" s="74"/>
       <c r="E222" s="21"/>
     </row>
     <row r="223" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="17"/>
-      <c r="D223" s="77"/>
+      <c r="D223" s="74"/>
       <c r="E223" s="21"/>
     </row>
     <row r="224" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="17"/>
-      <c r="D224" s="77"/>
+      <c r="D224" s="74"/>
       <c r="E224" s="21"/>
     </row>
     <row r="225" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="17"/>
-      <c r="D225" s="77"/>
+      <c r="D225" s="74"/>
       <c r="E225" s="21"/>
     </row>
     <row r="226" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="17"/>
-      <c r="D226" s="77"/>
+      <c r="D226" s="74"/>
       <c r="E226" s="21"/>
     </row>
     <row r="227" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="17"/>
-      <c r="D227" s="77"/>
+      <c r="D227" s="74"/>
       <c r="E227" s="21"/>
     </row>
     <row r="228" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="17"/>
-      <c r="D228" s="77"/>
+      <c r="D228" s="74"/>
       <c r="E228" s="21"/>
     </row>
     <row r="229" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="17"/>
-      <c r="D229" s="77"/>
+      <c r="D229" s="74"/>
       <c r="E229" s="21"/>
     </row>
     <row r="230" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="17"/>
-      <c r="D230" s="77"/>
+      <c r="D230" s="74"/>
       <c r="E230" s="21"/>
     </row>
     <row r="231" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="17"/>
-      <c r="D231" s="77"/>
+      <c r="D231" s="74"/>
       <c r="E231" s="21"/>
     </row>
     <row r="232" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="17"/>
-      <c r="D232" s="77"/>
+      <c r="D232" s="74"/>
       <c r="E232" s="21"/>
     </row>
     <row r="233" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="17"/>
-      <c r="D233" s="77"/>
+      <c r="D233" s="74"/>
       <c r="E233" s="21"/>
     </row>
     <row r="234" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="17"/>
-      <c r="D234" s="77"/>
+      <c r="D234" s="74"/>
       <c r="E234" s="21"/>
     </row>
     <row r="235" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="17"/>
-      <c r="D235" s="77"/>
+      <c r="D235" s="74"/>
       <c r="E235" s="21"/>
     </row>
     <row r="236" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="17"/>
-      <c r="D236" s="77"/>
+      <c r="D236" s="74"/>
       <c r="E236" s="21"/>
     </row>
     <row r="237" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="17"/>
-      <c r="D237" s="77"/>
+      <c r="D237" s="74"/>
       <c r="E237" s="21"/>
     </row>
     <row r="238" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="17"/>
-      <c r="D238" s="77"/>
+      <c r="D238" s="74"/>
       <c r="E238" s="21"/>
     </row>
     <row r="239" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="17"/>
-      <c r="D239" s="77"/>
+      <c r="D239" s="74"/>
       <c r="E239" s="21"/>
     </row>
     <row r="240" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="17"/>
-      <c r="D240" s="77"/>
+      <c r="D240" s="74"/>
       <c r="E240" s="21"/>
     </row>
     <row r="241" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="17"/>
-      <c r="D241" s="77"/>
+      <c r="D241" s="74"/>
       <c r="E241" s="21"/>
     </row>
     <row r="242" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="17"/>
-      <c r="D242" s="77"/>
+      <c r="D242" s="74"/>
       <c r="E242" s="21"/>
     </row>
     <row r="243" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="17"/>
-      <c r="D243" s="77"/>
+      <c r="D243" s="74"/>
       <c r="E243" s="21"/>
     </row>
     <row r="244" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="17"/>
-      <c r="D244" s="77"/>
+      <c r="D244" s="74"/>
       <c r="E244" s="21"/>
     </row>
     <row r="245" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="17"/>
-      <c r="D245" s="77"/>
+      <c r="D245" s="74"/>
       <c r="E245" s="21"/>
     </row>
     <row r="246" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="17"/>
-      <c r="D246" s="77"/>
+      <c r="D246" s="74"/>
       <c r="E246" s="21"/>
     </row>
     <row r="247" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="17"/>
-      <c r="D247" s="77"/>
+      <c r="D247" s="74"/>
       <c r="E247" s="21"/>
     </row>
     <row r="248" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="17"/>
-      <c r="D248" s="77"/>
+      <c r="D248" s="74"/>
       <c r="E248" s="21"/>
     </row>
     <row r="249" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="17"/>
-      <c r="D249" s="77"/>
+      <c r="D249" s="74"/>
       <c r="E249" s="21"/>
     </row>
     <row r="250" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="17"/>
-      <c r="D250" s="77"/>
+      <c r="D250" s="74"/>
       <c r="E250" s="21"/>
     </row>
     <row r="251" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="17"/>
-      <c r="D251" s="77"/>
+      <c r="D251" s="74"/>
       <c r="E251" s="21"/>
     </row>
     <row r="252" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="17"/>
-      <c r="D252" s="77"/>
+      <c r="D252" s="74"/>
       <c r="E252" s="21"/>
     </row>
     <row r="253" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="17"/>
-      <c r="D253" s="77"/>
+      <c r="D253" s="74"/>
       <c r="E253" s="21"/>
     </row>
     <row r="254" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="17"/>
-      <c r="D254" s="77"/>
+      <c r="D254" s="74"/>
       <c r="E254" s="21"/>
     </row>
     <row r="255" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="17"/>
-      <c r="D255" s="77"/>
+      <c r="D255" s="74"/>
       <c r="E255" s="21"/>
     </row>
     <row r="256" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="17"/>
-      <c r="D256" s="77"/>
+      <c r="D256" s="74"/>
       <c r="E256" s="21"/>
     </row>
     <row r="257" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="17"/>
-      <c r="D257" s="77"/>
+      <c r="D257" s="74"/>
       <c r="E257" s="21"/>
     </row>
     <row r="258" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="17"/>
-      <c r="D258" s="77"/>
+      <c r="D258" s="74"/>
       <c r="E258" s="21"/>
     </row>
     <row r="259" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="17"/>
-      <c r="D259" s="77"/>
+      <c r="D259" s="74"/>
       <c r="E259" s="21"/>
     </row>
     <row r="260" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="17"/>
-      <c r="D260" s="77"/>
+      <c r="D260" s="74"/>
       <c r="E260" s="21"/>
     </row>
     <row r="261" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="17"/>
-      <c r="D261" s="77"/>
+      <c r="D261" s="74"/>
       <c r="E261" s="21"/>
     </row>
     <row r="262" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="17"/>
-      <c r="D262" s="77"/>
+      <c r="D262" s="74"/>
       <c r="E262" s="21"/>
     </row>
     <row r="263" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="17"/>
-      <c r="D263" s="77"/>
+      <c r="D263" s="74"/>
       <c r="E263" s="21"/>
     </row>
     <row r="264" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="17"/>
-      <c r="D264" s="77"/>
+      <c r="D264" s="74"/>
       <c r="E264" s="21"/>
     </row>
     <row r="265" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="17"/>
-      <c r="D265" s="77"/>
+      <c r="D265" s="74"/>
       <c r="E265" s="21"/>
     </row>
     <row r="266" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="17"/>
-      <c r="D266" s="77"/>
+      <c r="D266" s="74"/>
       <c r="E266" s="21"/>
     </row>
     <row r="267" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="17"/>
-      <c r="D267" s="77"/>
+      <c r="D267" s="74"/>
       <c r="E267" s="21"/>
     </row>
     <row r="268" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="17"/>
-      <c r="D268" s="77"/>
+      <c r="D268" s="74"/>
       <c r="E268" s="21"/>
     </row>
     <row r="269" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="17"/>
-      <c r="D269" s="77"/>
+      <c r="D269" s="74"/>
       <c r="E269" s="21"/>
     </row>
     <row r="270" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="17"/>
-      <c r="D270" s="77"/>
+      <c r="D270" s="74"/>
       <c r="E270" s="21"/>
     </row>
     <row r="271" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="17"/>
-      <c r="D271" s="77"/>
+      <c r="D271" s="74"/>
       <c r="E271" s="21"/>
     </row>
     <row r="272" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="17"/>
-      <c r="D272" s="77"/>
+      <c r="D272" s="74"/>
       <c r="E272" s="21"/>
     </row>
     <row r="273" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="17"/>
-      <c r="D273" s="77"/>
+      <c r="D273" s="74"/>
       <c r="E273" s="21"/>
     </row>
     <row r="274" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="17"/>
-      <c r="D274" s="77"/>
+      <c r="D274" s="74"/>
       <c r="E274" s="21"/>
     </row>
     <row r="275" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="17"/>
-      <c r="D275" s="77"/>
+      <c r="D275" s="74"/>
       <c r="E275" s="21"/>
     </row>
     <row r="276" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="17"/>
-      <c r="D276" s="77"/>
+      <c r="D276" s="74"/>
       <c r="E276" s="21"/>
     </row>
     <row r="277" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="17"/>
-      <c r="D277" s="77"/>
+      <c r="D277" s="74"/>
       <c r="E277" s="21"/>
     </row>
     <row r="278" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="17"/>
-      <c r="D278" s="77"/>
+      <c r="D278" s="74"/>
       <c r="E278" s="21"/>
     </row>
     <row r="279" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="17"/>
-      <c r="D279" s="77"/>
+      <c r="D279" s="74"/>
       <c r="E279" s="21"/>
     </row>
     <row r="280" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="17"/>
-      <c r="D280" s="77"/>
+      <c r="D280" s="74"/>
       <c r="E280" s="21"/>
     </row>
     <row r="281" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="17"/>
-      <c r="D281" s="77"/>
+      <c r="D281" s="74"/>
       <c r="E281" s="21"/>
     </row>
     <row r="282" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="17"/>
-      <c r="D282" s="77"/>
+      <c r="D282" s="74"/>
       <c r="E282" s="21"/>
     </row>
     <row r="283" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="17"/>
-      <c r="D283" s="77"/>
+      <c r="D283" s="74"/>
       <c r="E283" s="21"/>
     </row>
     <row r="284" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="17"/>
-      <c r="D284" s="77"/>
+      <c r="D284" s="74"/>
       <c r="E284" s="21"/>
     </row>
     <row r="285" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="17"/>
-      <c r="D285" s="77"/>
+      <c r="D285" s="74"/>
       <c r="E285" s="21"/>
     </row>
     <row r="286" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="17"/>
-      <c r="D286" s="77"/>
+      <c r="D286" s="74"/>
       <c r="E286" s="21"/>
     </row>
     <row r="287" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="17"/>
-      <c r="D287" s="77"/>
+      <c r="D287" s="74"/>
       <c r="E287" s="21"/>
     </row>
     <row r="288" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="17"/>
-      <c r="D288" s="77"/>
+      <c r="D288" s="74"/>
       <c r="E288" s="21"/>
     </row>
     <row r="289" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="17"/>
-      <c r="D289" s="77"/>
+      <c r="D289" s="74"/>
       <c r="E289" s="21"/>
     </row>
     <row r="290" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="17"/>
-      <c r="D290" s="77"/>
+      <c r="D290" s="74"/>
       <c r="E290" s="21"/>
     </row>
     <row r="291" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="17"/>
-      <c r="D291" s="77"/>
+      <c r="D291" s="74"/>
       <c r="E291" s="21"/>
     </row>
     <row r="292" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="17"/>
-      <c r="D292" s="77"/>
+      <c r="D292" s="74"/>
       <c r="E292" s="21"/>
     </row>
     <row r="293" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="17"/>
-      <c r="D293" s="77"/>
+      <c r="D293" s="74"/>
       <c r="E293" s="21"/>
     </row>
     <row r="294" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="17"/>
-      <c r="D294" s="77"/>
+      <c r="D294" s="74"/>
       <c r="E294" s="21"/>
     </row>
     <row r="295" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="17"/>
-      <c r="D295" s="77"/>
+      <c r="D295" s="74"/>
       <c r="E295" s="21"/>
     </row>
     <row r="296" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="17"/>
-      <c r="D296" s="77"/>
+      <c r="D296" s="74"/>
       <c r="E296" s="21"/>
     </row>
     <row r="297" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="17"/>
-      <c r="D297" s="77"/>
+      <c r="D297" s="74"/>
       <c r="E297" s="21"/>
     </row>
     <row r="298" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="17"/>
-      <c r="D298" s="77"/>
+      <c r="D298" s="74"/>
       <c r="E298" s="21"/>
     </row>
     <row r="299" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="17"/>
-      <c r="D299" s="77"/>
+      <c r="D299" s="74"/>
       <c r="E299" s="21"/>
     </row>
     <row r="300" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="17"/>
-      <c r="D300" s="77"/>
+      <c r="D300" s="74"/>
       <c r="E300" s="21"/>
     </row>
     <row r="301" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="17"/>
-      <c r="D301" s="77"/>
+      <c r="D301" s="74"/>
       <c r="E301" s="21"/>
     </row>
     <row r="302" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="17"/>
-      <c r="D302" s="77"/>
+      <c r="D302" s="74"/>
       <c r="E302" s="21"/>
     </row>
     <row r="303" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="17"/>
-      <c r="D303" s="77"/>
+      <c r="D303" s="74"/>
       <c r="E303" s="21"/>
     </row>
     <row r="304" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="17"/>
-      <c r="D304" s="77"/>
+      <c r="D304" s="74"/>
       <c r="E304" s="21"/>
     </row>
     <row r="305" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="17"/>
-      <c r="D305" s="77"/>
+      <c r="D305" s="74"/>
       <c r="E305" s="21"/>
     </row>
     <row r="306" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="17"/>
-      <c r="D306" s="77"/>
+      <c r="D306" s="74"/>
       <c r="E306" s="21"/>
     </row>
     <row r="307" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="17"/>
-      <c r="D307" s="77"/>
+      <c r="D307" s="74"/>
       <c r="E307" s="21"/>
     </row>
     <row r="308" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="17"/>
-      <c r="D308" s="77"/>
+      <c r="D308" s="74"/>
       <c r="E308" s="21"/>
     </row>
     <row r="309" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="17"/>
-      <c r="D309" s="77"/>
+      <c r="D309" s="74"/>
       <c r="E309" s="21"/>
     </row>
     <row r="310" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="17"/>
-      <c r="D310" s="77"/>
+      <c r="D310" s="74"/>
       <c r="E310" s="21"/>
     </row>
     <row r="311" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="17"/>
-      <c r="D311" s="77"/>
+      <c r="D311" s="74"/>
       <c r="E311" s="21"/>
     </row>
     <row r="312" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="17"/>
-      <c r="D312" s="77"/>
+      <c r="D312" s="74"/>
       <c r="E312" s="21"/>
     </row>
     <row r="313" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="17"/>
-      <c r="D313" s="77"/>
+      <c r="D313" s="74"/>
       <c r="E313" s="21"/>
     </row>
     <row r="314" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="17"/>
-      <c r="D314" s="77"/>
+      <c r="D314" s="74"/>
       <c r="E314" s="21"/>
     </row>
     <row r="315" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="17"/>
-      <c r="D315" s="77"/>
+      <c r="D315" s="74"/>
       <c r="E315" s="21"/>
     </row>
     <row r="316" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="17"/>
-      <c r="D316" s="77"/>
+      <c r="D316" s="74"/>
       <c r="E316" s="21"/>
     </row>
     <row r="317" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="17"/>
-      <c r="D317" s="77"/>
+      <c r="D317" s="74"/>
       <c r="E317" s="21"/>
     </row>
     <row r="318" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="17"/>
-      <c r="D318" s="77"/>
+      <c r="D318" s="74"/>
       <c r="E318" s="21"/>
     </row>
     <row r="319" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="17"/>
-      <c r="D319" s="77"/>
+      <c r="D319" s="74"/>
       <c r="E319" s="21"/>
     </row>
     <row r="320" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="17"/>
-      <c r="D320" s="77"/>
+      <c r="D320" s="74"/>
       <c r="E320" s="21"/>
     </row>
     <row r="321" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="17"/>
-      <c r="D321" s="77"/>
+      <c r="D321" s="74"/>
       <c r="E321" s="21"/>
     </row>
     <row r="322" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="17"/>
-      <c r="D322" s="77"/>
+      <c r="D322" s="74"/>
       <c r="E322" s="21"/>
     </row>
     <row r="323" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="17"/>
-      <c r="D323" s="77"/>
+      <c r="D323" s="74"/>
       <c r="E323" s="21"/>
     </row>
     <row r="324" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="17"/>
-      <c r="D324" s="77"/>
+      <c r="D324" s="74"/>
       <c r="E324" s="21"/>
     </row>
     <row r="325" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="17"/>
-      <c r="D325" s="77"/>
+      <c r="D325" s="74"/>
       <c r="E325" s="21"/>
     </row>
     <row r="326" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="17"/>
-      <c r="D326" s="77"/>
+      <c r="D326" s="74"/>
       <c r="E326" s="21"/>
     </row>
     <row r="327" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="17"/>
-      <c r="D327" s="77"/>
+      <c r="D327" s="74"/>
       <c r="E327" s="21"/>
     </row>
     <row r="328" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="17"/>
-      <c r="D328" s="77"/>
+      <c r="D328" s="74"/>
       <c r="E328" s="21"/>
     </row>
     <row r="329" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="17"/>
-      <c r="D329" s="77"/>
+      <c r="D329" s="74"/>
       <c r="E329" s="21"/>
     </row>
     <row r="330" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="17"/>
-      <c r="D330" s="77"/>
+      <c r="D330" s="74"/>
       <c r="E330" s="21"/>
     </row>
     <row r="331" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="17"/>
-      <c r="D331" s="77"/>
+      <c r="D331" s="74"/>
       <c r="E331" s="21"/>
     </row>
     <row r="332" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="17"/>
-      <c r="D332" s="77"/>
+      <c r="D332" s="74"/>
       <c r="E332" s="21"/>
     </row>
     <row r="333" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="17"/>
-      <c r="D333" s="77"/>
+      <c r="D333" s="74"/>
       <c r="E333" s="21"/>
     </row>
     <row r="334" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="17"/>
-      <c r="D334" s="77"/>
+      <c r="D334" s="74"/>
       <c r="E334" s="21"/>
     </row>
     <row r="335" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="17"/>
-      <c r="D335" s="77"/>
+      <c r="D335" s="74"/>
       <c r="E335" s="21"/>
     </row>
     <row r="336" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="17"/>
-      <c r="D336" s="77"/>
+      <c r="D336" s="74"/>
       <c r="E336" s="21"/>
     </row>
     <row r="337" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="17"/>
-      <c r="D337" s="77"/>
+      <c r="D337" s="74"/>
       <c r="E337" s="21"/>
     </row>
     <row r="338" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="17"/>
-      <c r="D338" s="77"/>
+      <c r="D338" s="74"/>
       <c r="E338" s="21"/>
     </row>
     <row r="339" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="17"/>
-      <c r="D339" s="77"/>
+      <c r="D339" s="74"/>
       <c r="E339" s="21"/>
     </row>
     <row r="340" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="17"/>
-      <c r="D340" s="77"/>
+      <c r="D340" s="74"/>
       <c r="E340" s="21"/>
     </row>
     <row r="341" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="17"/>
-      <c r="D341" s="77"/>
+      <c r="D341" s="74"/>
       <c r="E341" s="21"/>
     </row>
     <row r="342" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="17"/>
-      <c r="D342" s="77"/>
+      <c r="D342" s="74"/>
       <c r="E342" s="21"/>
     </row>
     <row r="343" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="17"/>
-      <c r="D343" s="77"/>
+      <c r="D343" s="74"/>
       <c r="E343" s="21"/>
     </row>
     <row r="344" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="17"/>
-      <c r="D344" s="77"/>
+      <c r="D344" s="74"/>
       <c r="E344" s="21"/>
     </row>
     <row r="345" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="17"/>
-      <c r="D345" s="77"/>
+      <c r="D345" s="74"/>
       <c r="E345" s="21"/>
     </row>
     <row r="346" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="17"/>
-      <c r="D346" s="77"/>
+      <c r="D346" s="74"/>
       <c r="E346" s="21"/>
     </row>
     <row r="347" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="17"/>
-      <c r="D347" s="77"/>
+      <c r="D347" s="74"/>
       <c r="E347" s="21"/>
     </row>
     <row r="348" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="17"/>
-      <c r="D348" s="77"/>
+      <c r="D348" s="74"/>
       <c r="E348" s="21"/>
     </row>
     <row r="349" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="17"/>
-      <c r="D349" s="77"/>
+      <c r="D349" s="74"/>
       <c r="E349" s="21"/>
     </row>
     <row r="350" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="17"/>
-      <c r="D350" s="77"/>
+      <c r="D350" s="74"/>
       <c r="E350" s="21"/>
     </row>
     <row r="351" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="17"/>
-      <c r="D351" s="77"/>
+      <c r="D351" s="74"/>
       <c r="E351" s="21"/>
     </row>
     <row r="352" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="17"/>
-      <c r="D352" s="77"/>
+      <c r="D352" s="74"/>
       <c r="E352" s="21"/>
     </row>
     <row r="353" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="17"/>
-      <c r="D353" s="77"/>
+      <c r="D353" s="74"/>
       <c r="E353" s="21"/>
     </row>
     <row r="354" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="17"/>
-      <c r="D354" s="77"/>
+      <c r="D354" s="74"/>
       <c r="E354" s="21"/>
     </row>
     <row r="355" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="17"/>
-      <c r="D355" s="77"/>
+      <c r="D355" s="74"/>
       <c r="E355" s="21"/>
     </row>
     <row r="356" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="17"/>
-      <c r="D356" s="77"/>
+      <c r="D356" s="74"/>
       <c r="E356" s="21"/>
     </row>
     <row r="357" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="17"/>
-      <c r="D357" s="77"/>
+      <c r="D357" s="74"/>
       <c r="E357" s="21"/>
     </row>
     <row r="358" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="17"/>
-      <c r="D358" s="77"/>
+      <c r="D358" s="74"/>
       <c r="E358" s="21"/>
     </row>
     <row r="359" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="17"/>
-      <c r="D359" s="77"/>
+      <c r="D359" s="74"/>
       <c r="E359" s="21"/>
     </row>
     <row r="360" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="17"/>
-      <c r="D360" s="77"/>
+      <c r="D360" s="74"/>
       <c r="E360" s="21"/>
     </row>
     <row r="361" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="17"/>
-      <c r="D361" s="77"/>
+      <c r="D361" s="74"/>
       <c r="E361" s="21"/>
     </row>
     <row r="362" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="17"/>
-      <c r="D362" s="77"/>
+      <c r="D362" s="74"/>
       <c r="E362" s="21"/>
     </row>
     <row r="363" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="17"/>
-      <c r="D363" s="77"/>
+      <c r="D363" s="74"/>
       <c r="E363" s="21"/>
     </row>
     <row r="364" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="17"/>
-      <c r="D364" s="77"/>
+      <c r="D364" s="74"/>
       <c r="E364" s="21"/>
     </row>
     <row r="365" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="17"/>
-      <c r="D365" s="77"/>
+      <c r="D365" s="74"/>
       <c r="E365" s="21"/>
     </row>
     <row r="366" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="17"/>
-      <c r="D366" s="77"/>
+      <c r="D366" s="74"/>
       <c r="E366" s="21"/>
     </row>
     <row r="367" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="17"/>
-      <c r="D367" s="77"/>
+      <c r="D367" s="74"/>
       <c r="E367" s="21"/>
     </row>
     <row r="368" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="17"/>
-      <c r="D368" s="77"/>
+      <c r="D368" s="74"/>
       <c r="E368" s="21"/>
     </row>
     <row r="369" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="17"/>
-      <c r="D369" s="77"/>
+      <c r="D369" s="74"/>
       <c r="E369" s="21"/>
     </row>
     <row r="370" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="17"/>
-      <c r="D370" s="77"/>
+      <c r="D370" s="74"/>
       <c r="E370" s="21"/>
     </row>
     <row r="371" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="17"/>
-      <c r="D371" s="77"/>
+      <c r="D371" s="74"/>
       <c r="E371" s="21"/>
     </row>
     <row r="372" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="17"/>
-      <c r="D372" s="77"/>
+      <c r="D372" s="74"/>
       <c r="E372" s="21"/>
     </row>
     <row r="373" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="17"/>
-      <c r="D373" s="77"/>
+      <c r="D373" s="74"/>
       <c r="E373" s="21"/>
     </row>
     <row r="374" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="17"/>
-      <c r="D374" s="77"/>
+      <c r="D374" s="74"/>
       <c r="E374" s="21"/>
     </row>
     <row r="375" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="17"/>
-      <c r="D375" s="77"/>
+      <c r="D375" s="74"/>
       <c r="E375" s="21"/>
     </row>
     <row r="376" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="17"/>
-      <c r="D376" s="77"/>
+      <c r="D376" s="74"/>
       <c r="E376" s="21"/>
     </row>
     <row r="377" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="17"/>
-      <c r="D377" s="77"/>
+      <c r="D377" s="74"/>
       <c r="E377" s="21"/>
     </row>
     <row r="378" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="17"/>
-      <c r="D378" s="77"/>
+      <c r="D378" s="74"/>
       <c r="E378" s="21"/>
     </row>
     <row r="379" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="17"/>
-      <c r="D379" s="77"/>
+      <c r="D379" s="74"/>
       <c r="E379" s="21"/>
     </row>
     <row r="380" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="17"/>
-      <c r="D380" s="77"/>
+      <c r="D380" s="74"/>
       <c r="E380" s="21"/>
     </row>
     <row r="381" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="17"/>
-      <c r="D381" s="77"/>
+      <c r="D381" s="74"/>
       <c r="E381" s="21"/>
     </row>
     <row r="382" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="17"/>
-      <c r="D382" s="77"/>
+      <c r="D382" s="74"/>
       <c r="E382" s="21"/>
     </row>
     <row r="383" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="17"/>
-      <c r="D383" s="77"/>
+      <c r="D383" s="74"/>
       <c r="E383" s="21"/>
     </row>
     <row r="384" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="17"/>
-      <c r="D384" s="77"/>
+      <c r="D384" s="74"/>
       <c r="E384" s="21"/>
     </row>
     <row r="385" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="17"/>
-      <c r="D385" s="77"/>
+      <c r="D385" s="74"/>
       <c r="E385" s="21"/>
     </row>
     <row r="386" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="17"/>
-      <c r="D386" s="77"/>
+      <c r="D386" s="74"/>
       <c r="E386" s="21"/>
     </row>
     <row r="387" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="17"/>
-      <c r="D387" s="77"/>
+      <c r="D387" s="74"/>
       <c r="E387" s="21"/>
     </row>
     <row r="388" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="17"/>
-      <c r="D388" s="77"/>
+      <c r="D388" s="74"/>
       <c r="E388" s="21"/>
     </row>
     <row r="389" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="17"/>
-      <c r="D389" s="77"/>
+      <c r="D389" s="74"/>
       <c r="E389" s="21"/>
     </row>
     <row r="390" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="17"/>
-      <c r="D390" s="77"/>
+      <c r="D390" s="74"/>
       <c r="E390" s="21"/>
     </row>
     <row r="391" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="17"/>
-      <c r="D391" s="77"/>
+      <c r="D391" s="74"/>
       <c r="E391" s="21"/>
     </row>
     <row r="392" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="17"/>
-      <c r="D392" s="77"/>
+      <c r="D392" s="74"/>
       <c r="E392" s="21"/>
     </row>
     <row r="393" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="17"/>
-      <c r="D393" s="77"/>
+      <c r="D393" s="74"/>
       <c r="E393" s="21"/>
     </row>
     <row r="394" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="17"/>
-      <c r="D394" s="77"/>
+      <c r="D394" s="74"/>
       <c r="E394" s="21"/>
     </row>
     <row r="395" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="17"/>
-      <c r="D395" s="77"/>
+      <c r="D395" s="74"/>
       <c r="E395" s="21"/>
     </row>
     <row r="396" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="17"/>
-      <c r="D396" s="77"/>
+      <c r="D396" s="74"/>
       <c r="E396" s="21"/>
     </row>
     <row r="397" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="17"/>
-      <c r="D397" s="77"/>
+      <c r="D397" s="74"/>
       <c r="E397" s="21"/>
     </row>
     <row r="398" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="17"/>
-      <c r="D398" s="77"/>
+      <c r="D398" s="74"/>
       <c r="E398" s="21"/>
     </row>
     <row r="399" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="17"/>
-      <c r="D399" s="77"/>
+      <c r="D399" s="74"/>
       <c r="E399" s="21"/>
     </row>
     <row r="400" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="17"/>
-      <c r="D400" s="77"/>
+      <c r="D400" s="74"/>
       <c r="E400" s="21"/>
     </row>
     <row r="401" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="17"/>
-      <c r="D401" s="77"/>
+      <c r="D401" s="74"/>
       <c r="E401" s="21"/>
     </row>
     <row r="402" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="17"/>
-      <c r="D402" s="77"/>
+      <c r="D402" s="74"/>
       <c r="E402" s="21"/>
     </row>
     <row r="403" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="17"/>
-      <c r="D403" s="77"/>
+      <c r="D403" s="74"/>
       <c r="E403" s="21"/>
     </row>
     <row r="404" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="17"/>
-      <c r="D404" s="77"/>
+      <c r="D404" s="74"/>
       <c r="E404" s="21"/>
     </row>
     <row r="405" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="17"/>
-      <c r="D405" s="77"/>
+      <c r="D405" s="74"/>
       <c r="E405" s="21"/>
     </row>
     <row r="406" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="17"/>
-      <c r="D406" s="77"/>
+      <c r="D406" s="74"/>
       <c r="E406" s="21"/>
     </row>
     <row r="407" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="17"/>
-      <c r="D407" s="77"/>
+      <c r="D407" s="74"/>
       <c r="E407" s="21"/>
     </row>
     <row r="408" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="17"/>
-      <c r="D408" s="77"/>
+      <c r="D408" s="74"/>
       <c r="E408" s="21"/>
     </row>
     <row r="409" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="17"/>
-      <c r="D409" s="77"/>
+      <c r="D409" s="74"/>
       <c r="E409" s="21"/>
     </row>
     <row r="410" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="17"/>
-      <c r="D410" s="77"/>
+      <c r="D410" s="74"/>
       <c r="E410" s="21"/>
     </row>
     <row r="411" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="17"/>
-      <c r="D411" s="77"/>
+      <c r="D411" s="74"/>
       <c r="E411" s="21"/>
     </row>
     <row r="412" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="17"/>
-      <c r="D412" s="77"/>
+      <c r="D412" s="74"/>
       <c r="E412" s="21"/>
     </row>
     <row r="413" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="17"/>
-      <c r="D413" s="77"/>
+      <c r="D413" s="74"/>
       <c r="E413" s="21"/>
     </row>
     <row r="414" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="17"/>
-      <c r="D414" s="77"/>
+      <c r="D414" s="74"/>
       <c r="E414" s="21"/>
     </row>
     <row r="415" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="17"/>
-      <c r="D415" s="77"/>
+      <c r="D415" s="74"/>
       <c r="E415" s="21"/>
     </row>
     <row r="416" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="17"/>
-      <c r="D416" s="77"/>
+      <c r="D416" s="74"/>
       <c r="E416" s="21"/>
     </row>
     <row r="417" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="17"/>
-      <c r="D417" s="77"/>
+      <c r="D417" s="74"/>
       <c r="E417" s="21"/>
     </row>
     <row r="418" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="17"/>
-      <c r="D418" s="77"/>
+      <c r="D418" s="74"/>
       <c r="E418" s="21"/>
     </row>
     <row r="419" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="17"/>
-      <c r="D419" s="77"/>
+      <c r="D419" s="74"/>
       <c r="E419" s="21"/>
     </row>
     <row r="420" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="17"/>
-      <c r="D420" s="77"/>
+      <c r="D420" s="74"/>
       <c r="E420" s="21"/>
     </row>
     <row r="421" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="17"/>
-      <c r="D421" s="77"/>
+      <c r="D421" s="74"/>
       <c r="E421" s="21"/>
     </row>
     <row r="422" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="17"/>
-      <c r="D422" s="77"/>
+      <c r="D422" s="74"/>
       <c r="E422" s="21"/>
     </row>
     <row r="423" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="17"/>
-      <c r="D423" s="77"/>
+      <c r="D423" s="74"/>
       <c r="E423" s="21"/>
     </row>
     <row r="424" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="17"/>
-      <c r="D424" s="77"/>
+      <c r="D424" s="74"/>
       <c r="E424" s="21"/>
     </row>
     <row r="425" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="17"/>
-      <c r="D425" s="77"/>
+      <c r="D425" s="74"/>
       <c r="E425" s="21"/>
     </row>
     <row r="426" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="17"/>
-      <c r="D426" s="77"/>
+      <c r="D426" s="74"/>
       <c r="E426" s="21"/>
     </row>
     <row r="427" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="17"/>
-      <c r="D427" s="77"/>
+      <c r="D427" s="74"/>
       <c r="E427" s="21"/>
     </row>
     <row r="428" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="17"/>
-      <c r="D428" s="77"/>
+      <c r="D428" s="74"/>
       <c r="E428" s="21"/>
     </row>
     <row r="429" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="17"/>
-      <c r="D429" s="77"/>
+      <c r="D429" s="74"/>
       <c r="E429" s="21"/>
     </row>
     <row r="430" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="17"/>
-      <c r="D430" s="77"/>
+      <c r="D430" s="74"/>
       <c r="E430" s="21"/>
     </row>
     <row r="431" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="17"/>
-      <c r="D431" s="77"/>
+      <c r="D431" s="74"/>
       <c r="E431" s="21"/>
     </row>
     <row r="432" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="17"/>
-      <c r="D432" s="77"/>
+      <c r="D432" s="74"/>
       <c r="E432" s="21"/>
     </row>
     <row r="433" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="17"/>
-      <c r="D433" s="77"/>
+      <c r="D433" s="74"/>
       <c r="E433" s="21"/>
     </row>
     <row r="434" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="17"/>
-      <c r="D434" s="77"/>
+      <c r="D434" s="74"/>
       <c r="E434" s="21"/>
     </row>
     <row r="435" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="17"/>
-      <c r="D435" s="77"/>
+      <c r="D435" s="74"/>
       <c r="E435" s="21"/>
     </row>
     <row r="436" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="17"/>
-      <c r="D436" s="77"/>
+      <c r="D436" s="74"/>
       <c r="E436" s="21"/>
     </row>
     <row r="437" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="17"/>
-      <c r="D437" s="77"/>
+      <c r="D437" s="74"/>
       <c r="E437" s="21"/>
     </row>
     <row r="438" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="17"/>
-      <c r="D438" s="77"/>
+      <c r="D438" s="74"/>
       <c r="E438" s="21"/>
     </row>
     <row r="439" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="17"/>
-      <c r="D439" s="77"/>
+      <c r="D439" s="74"/>
       <c r="E439" s="21"/>
     </row>
     <row r="440" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="17"/>
-      <c r="D440" s="77"/>
+      <c r="D440" s="74"/>
       <c r="E440" s="21"/>
     </row>
     <row r="441" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="17"/>
-      <c r="D441" s="77"/>
+      <c r="D441" s="74"/>
       <c r="E441" s="21"/>
     </row>
     <row r="442" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="17"/>
-      <c r="D442" s="77"/>
+      <c r="D442" s="74"/>
       <c r="E442" s="21"/>
     </row>
     <row r="443" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="17"/>
-      <c r="D443" s="77"/>
+      <c r="D443" s="74"/>
       <c r="E443" s="21"/>
     </row>
     <row r="444" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="17"/>
-      <c r="D444" s="77"/>
+      <c r="D444" s="74"/>
       <c r="E444" s="21"/>
     </row>
     <row r="445" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="17"/>
-      <c r="D445" s="77"/>
+      <c r="D445" s="74"/>
       <c r="E445" s="21"/>
     </row>
     <row r="446" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="17"/>
-      <c r="D446" s="77"/>
+      <c r="D446" s="74"/>
       <c r="E446" s="21"/>
     </row>
     <row r="447" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="17"/>
-      <c r="D447" s="77"/>
+      <c r="D447" s="74"/>
       <c r="E447" s="21"/>
     </row>
     <row r="448" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="17"/>
-      <c r="D448" s="77"/>
+      <c r="D448" s="74"/>
       <c r="E448" s="21"/>
     </row>
     <row r="449" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="17"/>
-      <c r="D449" s="77"/>
+      <c r="D449" s="74"/>
       <c r="E449" s="21"/>
     </row>
     <row r="450" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="17"/>
-      <c r="D450" s="77"/>
+      <c r="D450" s="74"/>
       <c r="E450" s="21"/>
     </row>
     <row r="451" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="17"/>
-      <c r="D451" s="77"/>
+      <c r="D451" s="74"/>
       <c r="E451" s="21"/>
     </row>
     <row r="452" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="17"/>
-      <c r="D452" s="77"/>
+      <c r="D452" s="74"/>
       <c r="E452" s="21"/>
     </row>
     <row r="453" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="17"/>
-      <c r="D453" s="77"/>
+      <c r="D453" s="74"/>
       <c r="E453" s="21"/>
     </row>
     <row r="454" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="17"/>
-      <c r="D454" s="77"/>
+      <c r="D454" s="74"/>
       <c r="E454" s="21"/>
     </row>
     <row r="455" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="17"/>
-      <c r="D455" s="77"/>
+      <c r="D455" s="74"/>
       <c r="E455" s="21"/>
     </row>
     <row r="456" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="17"/>
-      <c r="D456" s="77"/>
+      <c r="D456" s="74"/>
       <c r="E456" s="21"/>
     </row>
     <row r="457" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="17"/>
-      <c r="D457" s="77"/>
+      <c r="D457" s="74"/>
       <c r="E457" s="21"/>
     </row>
     <row r="458" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="17"/>
-      <c r="D458" s="77"/>
+      <c r="D458" s="74"/>
       <c r="E458" s="21"/>
     </row>
     <row r="459" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="17"/>
-      <c r="D459" s="77"/>
+      <c r="D459" s="74"/>
       <c r="E459" s="21"/>
     </row>
     <row r="460" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="17"/>
-      <c r="D460" s="77"/>
+      <c r="D460" s="74"/>
       <c r="E460" s="21"/>
     </row>
     <row r="461" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="17"/>
-      <c r="D461" s="77"/>
+      <c r="D461" s="74"/>
       <c r="E461" s="21"/>
     </row>
     <row r="462" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="17"/>
-      <c r="D462" s="77"/>
+      <c r="D462" s="74"/>
       <c r="E462" s="21"/>
     </row>
     <row r="463" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="17"/>
-      <c r="D463" s="77"/>
+      <c r="D463" s="74"/>
       <c r="E463" s="21"/>
     </row>
     <row r="464" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="17"/>
-      <c r="D464" s="77"/>
+      <c r="D464" s="74"/>
       <c r="E464" s="21"/>
     </row>
     <row r="465" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="17"/>
-      <c r="D465" s="77"/>
+      <c r="D465" s="74"/>
       <c r="E465" s="21"/>
     </row>
     <row r="466" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="17"/>
-      <c r="D466" s="77"/>
+      <c r="D466" s="74"/>
       <c r="E466" s="21"/>
     </row>
     <row r="467" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="17"/>
-      <c r="D467" s="77"/>
+      <c r="D467" s="74"/>
       <c r="E467" s="21"/>
     </row>
     <row r="468" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="17"/>
-      <c r="D468" s="77"/>
+      <c r="D468" s="74"/>
       <c r="E468" s="21"/>
     </row>
     <row r="469" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="17"/>
-      <c r="D469" s="77"/>
+      <c r="D469" s="74"/>
       <c r="E469" s="21"/>
     </row>
     <row r="470" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="17"/>
-      <c r="D470" s="77"/>
+      <c r="D470" s="74"/>
       <c r="E470" s="21"/>
     </row>
     <row r="471" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="17"/>
-      <c r="D471" s="77"/>
+      <c r="D471" s="74"/>
       <c r="E471" s="21"/>
     </row>
     <row r="472" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="17"/>
-      <c r="D472" s="77"/>
+      <c r="D472" s="74"/>
       <c r="E472" s="21"/>
     </row>
     <row r="473" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="17"/>
-      <c r="D473" s="77"/>
+      <c r="D473" s="74"/>
       <c r="E473" s="21"/>
     </row>
     <row r="474" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="17"/>
-      <c r="D474" s="77"/>
+      <c r="D474" s="74"/>
       <c r="E474" s="21"/>
     </row>
     <row r="475" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="17"/>
-      <c r="D475" s="77"/>
+      <c r="D475" s="74"/>
       <c r="E475" s="21"/>
     </row>
     <row r="476" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="17"/>
-      <c r="D476" s="77"/>
+      <c r="D476" s="74"/>
       <c r="E476" s="21"/>
     </row>
     <row r="477" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="17"/>
-      <c r="D477" s="77"/>
+      <c r="D477" s="74"/>
       <c r="E477" s="21"/>
     </row>
     <row r="478" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="17"/>
-      <c r="D478" s="77"/>
+      <c r="D478" s="74"/>
       <c r="E478" s="21"/>
     </row>
     <row r="479" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="17"/>
-      <c r="D479" s="77"/>
+      <c r="D479" s="74"/>
       <c r="E479" s="21"/>
     </row>
     <row r="480" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="17"/>
-      <c r="D480" s="77"/>
+      <c r="D480" s="74"/>
       <c r="E480" s="21"/>
     </row>
     <row r="481" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="17"/>
-      <c r="D481" s="77"/>
+      <c r="D481" s="74"/>
       <c r="E481" s="21"/>
     </row>
     <row r="482" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="17"/>
-      <c r="D482" s="77"/>
+      <c r="D482" s="74"/>
       <c r="E482" s="21"/>
     </row>
     <row r="483" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="17"/>
-      <c r="D483" s="77"/>
+      <c r="D483" s="74"/>
       <c r="E483" s="21"/>
     </row>
     <row r="484" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="17"/>
-      <c r="D484" s="77"/>
+      <c r="D484" s="74"/>
       <c r="E484" s="21"/>
     </row>
     <row r="485" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="17"/>
-      <c r="D485" s="77"/>
+      <c r="D485" s="74"/>
       <c r="E485" s="21"/>
     </row>
     <row r="486" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="17"/>
-      <c r="D486" s="77"/>
+      <c r="D486" s="74"/>
       <c r="E486" s="21"/>
     </row>
     <row r="487" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="17"/>
-      <c r="D487" s="77"/>
+      <c r="D487" s="74"/>
       <c r="E487" s="21"/>
     </row>
     <row r="488" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="17"/>
-      <c r="D488" s="77"/>
+      <c r="D488" s="74"/>
       <c r="E488" s="21"/>
     </row>
     <row r="489" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="17"/>
-      <c r="D489" s="77"/>
+      <c r="D489" s="74"/>
       <c r="E489" s="21"/>
     </row>
     <row r="490" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="17"/>
-      <c r="D490" s="77"/>
+      <c r="D490" s="74"/>
       <c r="E490" s="21"/>
     </row>
     <row r="491" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="17"/>
-      <c r="D491" s="77"/>
+      <c r="D491" s="74"/>
       <c r="E491" s="21"/>
     </row>
     <row r="492" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="17"/>
-      <c r="D492" s="77"/>
+      <c r="D492" s="74"/>
       <c r="E492" s="21"/>
     </row>
     <row r="493" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="17"/>
-      <c r="D493" s="77"/>
+      <c r="D493" s="74"/>
       <c r="E493" s="21"/>
     </row>
     <row r="494" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="17"/>
-      <c r="D494" s="77"/>
+      <c r="D494" s="74"/>
       <c r="E494" s="21"/>
     </row>
     <row r="495" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="17"/>
-      <c r="D495" s="77"/>
+      <c r="D495" s="74"/>
       <c r="E495" s="21"/>
     </row>
     <row r="496" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="17"/>
-      <c r="D496" s="77"/>
+      <c r="D496" s="74"/>
       <c r="E496" s="21"/>
     </row>
     <row r="497" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="17"/>
-      <c r="D497" s="77"/>
+      <c r="D497" s="74"/>
       <c r="E497" s="21"/>
     </row>
     <row r="498" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="17"/>
-      <c r="D498" s="77"/>
+      <c r="D498" s="74"/>
       <c r="E498" s="21"/>
     </row>
     <row r="499" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="17"/>
-      <c r="D499" s="77"/>
+      <c r="D499" s="74"/>
       <c r="E499" s="21"/>
     </row>
     <row r="500" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="17"/>
-      <c r="D500" s="77"/>
+      <c r="D500" s="74"/>
       <c r="E500" s="21"/>
     </row>
     <row r="501" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="17"/>
-      <c r="D501" s="77"/>
+      <c r="D501" s="74"/>
       <c r="E501" s="21"/>
     </row>
     <row r="502" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="17"/>
-      <c r="D502" s="77"/>
+      <c r="D502" s="74"/>
       <c r="E502" s="21"/>
     </row>
     <row r="503" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="17"/>
-      <c r="D503" s="77"/>
+      <c r="D503" s="74"/>
       <c r="E503" s="21"/>
     </row>
     <row r="504" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="17"/>
-      <c r="D504" s="77"/>
+      <c r="D504" s="74"/>
       <c r="E504" s="21"/>
     </row>
     <row r="505" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="17"/>
-      <c r="D505" s="77"/>
+      <c r="D505" s="74"/>
       <c r="E505" s="21"/>
     </row>
     <row r="506" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="17"/>
-      <c r="D506" s="77"/>
+      <c r="D506" s="74"/>
       <c r="E506" s="21"/>
     </row>
     <row r="507" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="17"/>
-      <c r="D507" s="77"/>
+      <c r="D507" s="74"/>
       <c r="E507" s="21"/>
     </row>
     <row r="508" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="17"/>
-      <c r="D508" s="77"/>
+      <c r="D508" s="74"/>
       <c r="E508" s="21"/>
     </row>
     <row r="509" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="17"/>
-      <c r="D509" s="77"/>
+      <c r="D509" s="74"/>
       <c r="E509" s="21"/>
     </row>
     <row r="510" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="17"/>
-      <c r="D510" s="77"/>
+      <c r="D510" s="74"/>
       <c r="E510" s="21"/>
     </row>
     <row r="511" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="17"/>
-      <c r="D511" s="77"/>
+      <c r="D511" s="74"/>
       <c r="E511" s="21"/>
     </row>
     <row r="512" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="17"/>
-      <c r="D512" s="77"/>
+      <c r="D512" s="74"/>
       <c r="E512" s="21"/>
     </row>
     <row r="513" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="17"/>
-      <c r="D513" s="77"/>
+      <c r="D513" s="74"/>
       <c r="E513" s="21"/>
     </row>
     <row r="514" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="17"/>
-      <c r="D514" s="77"/>
+      <c r="D514" s="74"/>
       <c r="E514" s="21"/>
     </row>
     <row r="515" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="17"/>
-      <c r="D515" s="77"/>
+      <c r="D515" s="74"/>
       <c r="E515" s="21"/>
     </row>
     <row r="516" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="17"/>
-      <c r="D516" s="77"/>
+      <c r="D516" s="74"/>
       <c r="E516" s="21"/>
     </row>
     <row r="517" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="17"/>
-      <c r="D517" s="77"/>
+      <c r="D517" s="74"/>
       <c r="E517" s="21"/>
     </row>
     <row r="518" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="17"/>
-      <c r="D518" s="77"/>
+      <c r="D518" s="74"/>
       <c r="E518" s="21"/>
     </row>
     <row r="519" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="17"/>
-      <c r="D519" s="77"/>
+      <c r="D519" s="74"/>
       <c r="E519" s="21"/>
     </row>
     <row r="520" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="17"/>
-      <c r="D520" s="77"/>
+      <c r="D520" s="74"/>
       <c r="E520" s="21"/>
     </row>
     <row r="521" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="17"/>
-      <c r="D521" s="77"/>
+      <c r="D521" s="74"/>
       <c r="E521" s="21"/>
     </row>
     <row r="522" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="17"/>
-      <c r="D522" s="77"/>
+      <c r="D522" s="74"/>
       <c r="E522" s="21"/>
     </row>
     <row r="523" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="17"/>
-      <c r="D523" s="77"/>
+      <c r="D523" s="74"/>
       <c r="E523" s="21"/>
     </row>
     <row r="524" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="17"/>
-      <c r="D524" s="77"/>
+      <c r="D524" s="74"/>
       <c r="E524" s="21"/>
     </row>
     <row r="525" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="17"/>
-      <c r="D525" s="77"/>
+      <c r="D525" s="74"/>
       <c r="E525" s="21"/>
     </row>
     <row r="526" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="17"/>
-      <c r="D526" s="77"/>
+      <c r="D526" s="74"/>
       <c r="E526" s="21"/>
     </row>
     <row r="527" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="17"/>
-      <c r="D527" s="77"/>
+      <c r="D527" s="74"/>
       <c r="E527" s="21"/>
     </row>
     <row r="528" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="17"/>
-      <c r="D528" s="77"/>
+      <c r="D528" s="74"/>
       <c r="E528" s="21"/>
     </row>
     <row r="529" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="17"/>
-      <c r="D529" s="77"/>
+      <c r="D529" s="74"/>
       <c r="E529" s="21"/>
     </row>
     <row r="530" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="17"/>
-      <c r="D530" s="77"/>
+      <c r="D530" s="74"/>
       <c r="E530" s="21"/>
     </row>
     <row r="531" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="17"/>
-      <c r="D531" s="77"/>
+      <c r="D531" s="74"/>
       <c r="E531" s="21"/>
     </row>
     <row r="532" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="17"/>
-      <c r="D532" s="77"/>
+      <c r="D532" s="74"/>
       <c r="E532" s="21"/>
     </row>
     <row r="533" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="17"/>
-      <c r="D533" s="77"/>
+      <c r="D533" s="74"/>
       <c r="E533" s="21"/>
     </row>
     <row r="534" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="17"/>
-      <c r="D534" s="77"/>
+      <c r="D534" s="74"/>
       <c r="E534" s="21"/>
     </row>
     <row r="535" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="17"/>
-      <c r="D535" s="77"/>
+      <c r="D535" s="74"/>
       <c r="E535" s="21"/>
     </row>
     <row r="536" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="17"/>
-      <c r="D536" s="77"/>
+      <c r="D536" s="74"/>
       <c r="E536" s="21"/>
     </row>
     <row r="537" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="17"/>
-      <c r="D537" s="77"/>
+      <c r="D537" s="74"/>
       <c r="E537" s="21"/>
     </row>
     <row r="538" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="17"/>
-      <c r="D538" s="77"/>
+      <c r="D538" s="74"/>
       <c r="E538" s="21"/>
     </row>
     <row r="539" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="17"/>
-      <c r="D539" s="77"/>
+      <c r="D539" s="74"/>
       <c r="E539" s="21"/>
     </row>
     <row r="540" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="17"/>
-      <c r="D540" s="77"/>
+      <c r="D540" s="74"/>
       <c r="E540" s="21"/>
     </row>
     <row r="541" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="17"/>
-      <c r="D541" s="77"/>
+      <c r="D541" s="74"/>
       <c r="E541" s="21"/>
     </row>
     <row r="542" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="17"/>
-      <c r="D542" s="77"/>
+      <c r="D542" s="74"/>
       <c r="E542" s="21"/>
     </row>
     <row r="543" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="17"/>
-      <c r="D543" s="77"/>
+      <c r="D543" s="74"/>
       <c r="E543" s="21"/>
     </row>
     <row r="544" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="17"/>
-      <c r="D544" s="77"/>
+      <c r="D544" s="74"/>
       <c r="E544" s="21"/>
     </row>
     <row r="545" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="17"/>
-      <c r="D545" s="77"/>
+      <c r="D545" s="74"/>
       <c r="E545" s="21"/>
     </row>
     <row r="546" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="17"/>
-      <c r="D546" s="77"/>
+      <c r="D546" s="74"/>
       <c r="E546" s="21"/>
     </row>
     <row r="547" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="17"/>
-      <c r="D547" s="77"/>
+      <c r="D547" s="74"/>
       <c r="E547" s="21"/>
     </row>
     <row r="548" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="17"/>
-      <c r="D548" s="77"/>
+      <c r="D548" s="74"/>
       <c r="E548" s="21"/>
     </row>
     <row r="549" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="17"/>
-      <c r="D549" s="77"/>
+      <c r="D549" s="74"/>
       <c r="E549" s="21"/>
     </row>
     <row r="550" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="17"/>
-      <c r="D550" s="77"/>
+      <c r="D550" s="74"/>
       <c r="E550" s="21"/>
     </row>
     <row r="551" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="17"/>
-      <c r="D551" s="77"/>
+      <c r="D551" s="74"/>
       <c r="E551" s="21"/>
     </row>
     <row r="552" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="17"/>
-      <c r="D552" s="77"/>
+      <c r="D552" s="74"/>
       <c r="E552" s="21"/>
     </row>
     <row r="553" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="17"/>
-      <c r="D553" s="77"/>
+      <c r="D553" s="74"/>
       <c r="E553" s="21"/>
     </row>
     <row r="554" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="17"/>
-      <c r="D554" s="77"/>
+      <c r="D554" s="74"/>
       <c r="E554" s="21"/>
     </row>
     <row r="555" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="17"/>
-      <c r="D555" s="77"/>
+      <c r="D555" s="74"/>
       <c r="E555" s="21"/>
     </row>
     <row r="556" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="17"/>
-      <c r="D556" s="77"/>
+      <c r="D556" s="74"/>
       <c r="E556" s="21"/>
     </row>
     <row r="557" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="17"/>
-      <c r="D557" s="77"/>
+      <c r="D557" s="74"/>
       <c r="E557" s="21"/>
     </row>
     <row r="558" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="17"/>
-      <c r="D558" s="77"/>
+      <c r="D558" s="74"/>
       <c r="E558" s="21"/>
     </row>
     <row r="559" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="17"/>
-      <c r="D559" s="77"/>
+      <c r="D559" s="74"/>
       <c r="E559" s="21"/>
     </row>
     <row r="560" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="17"/>
-      <c r="D560" s="77"/>
+      <c r="D560" s="74"/>
       <c r="E560" s="21"/>
     </row>
     <row r="561" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="17"/>
-      <c r="D561" s="77"/>
+      <c r="D561" s="74"/>
       <c r="E561" s="21"/>
     </row>
     <row r="562" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="17"/>
-      <c r="D562" s="77"/>
+      <c r="D562" s="74"/>
       <c r="E562" s="21"/>
     </row>
     <row r="563" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="17"/>
-      <c r="D563" s="77"/>
+      <c r="D563" s="74"/>
       <c r="E563" s="21"/>
     </row>
     <row r="564" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="17"/>
-      <c r="D564" s="77"/>
+      <c r="D564" s="74"/>
       <c r="E564" s="21"/>
     </row>
     <row r="565" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="17"/>
-      <c r="D565" s="77"/>
+      <c r="D565" s="74"/>
       <c r="E565" s="21"/>
     </row>
     <row r="566" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="17"/>
-      <c r="D566" s="77"/>
+      <c r="D566" s="74"/>
       <c r="E566" s="21"/>
     </row>
     <row r="567" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="17"/>
-      <c r="D567" s="77"/>
+      <c r="D567" s="74"/>
       <c r="E567" s="21"/>
     </row>
     <row r="568" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="17"/>
-      <c r="D568" s="77"/>
+      <c r="D568" s="74"/>
       <c r="E568" s="21"/>
     </row>
     <row r="569" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="17"/>
-      <c r="D569" s="77"/>
+      <c r="D569" s="74"/>
       <c r="E569" s="21"/>
     </row>
     <row r="570" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="17"/>
-      <c r="D570" s="77"/>
+      <c r="D570" s="74"/>
       <c r="E570" s="21"/>
     </row>
     <row r="571" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="17"/>
-      <c r="D571" s="77"/>
+      <c r="D571" s="74"/>
       <c r="E571" s="21"/>
     </row>
     <row r="572" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="17"/>
-      <c r="D572" s="77"/>
+      <c r="D572" s="74"/>
       <c r="E572" s="21"/>
     </row>
     <row r="573" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="17"/>
-      <c r="D573" s="77"/>
+      <c r="D573" s="74"/>
       <c r="E573" s="21"/>
     </row>
     <row r="574" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="17"/>
-      <c r="D574" s="77"/>
+      <c r="D574" s="74"/>
       <c r="E574" s="21"/>
     </row>
     <row r="575" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="17"/>
-      <c r="D575" s="77"/>
+      <c r="D575" s="74"/>
       <c r="E575" s="21"/>
     </row>
     <row r="576" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="17"/>
-      <c r="D576" s="77"/>
+      <c r="D576" s="74"/>
       <c r="E576" s="21"/>
     </row>
     <row r="577" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="17"/>
-      <c r="D577" s="77"/>
+      <c r="D577" s="74"/>
       <c r="E577" s="21"/>
     </row>
     <row r="578" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="17"/>
-      <c r="D578" s="77"/>
+      <c r="D578" s="74"/>
       <c r="E578" s="21"/>
     </row>
     <row r="579" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="17"/>
-      <c r="D579" s="77"/>
+      <c r="D579" s="74"/>
       <c r="E579" s="21"/>
     </row>
     <row r="580" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="17"/>
-      <c r="D580" s="77"/>
+      <c r="D580" s="74"/>
       <c r="E580" s="21"/>
     </row>
     <row r="581" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="17"/>
-      <c r="D581" s="77"/>
+      <c r="D581" s="74"/>
       <c r="E581" s="21"/>
     </row>
     <row r="582" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="17"/>
-      <c r="D582" s="77"/>
+      <c r="D582" s="74"/>
       <c r="E582" s="21"/>
     </row>
     <row r="583" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="17"/>
-      <c r="D583" s="77"/>
+      <c r="D583" s="74"/>
       <c r="E583" s="21"/>
     </row>
     <row r="584" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="17"/>
-      <c r="D584" s="77"/>
+      <c r="D584" s="74"/>
       <c r="E584" s="21"/>
     </row>
     <row r="585" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="17"/>
-      <c r="D585" s="77"/>
+      <c r="D585" s="74"/>
       <c r="E585" s="21"/>
     </row>
     <row r="586" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="17"/>
-      <c r="D586" s="77"/>
+      <c r="D586" s="74"/>
       <c r="E586" s="21"/>
     </row>
     <row r="587" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="17"/>
-      <c r="D587" s="77"/>
+      <c r="D587" s="74"/>
       <c r="E587" s="21"/>
     </row>
     <row r="588" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="17"/>
-      <c r="D588" s="77"/>
+      <c r="D588" s="74"/>
       <c r="E588" s="21"/>
     </row>
     <row r="589" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="17"/>
-      <c r="D589" s="77"/>
+      <c r="D589" s="74"/>
       <c r="E589" s="21"/>
     </row>
     <row r="590" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="17"/>
-      <c r="D590" s="77"/>
+      <c r="D590" s="74"/>
       <c r="E590" s="21"/>
     </row>
     <row r="591" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="17"/>
-      <c r="D591" s="77"/>
+      <c r="D591" s="74"/>
       <c r="E591" s="21"/>
     </row>
     <row r="592" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="17"/>
-      <c r="D592" s="77"/>
+      <c r="D592" s="74"/>
       <c r="E592" s="21"/>
     </row>
     <row r="593" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="17"/>
-      <c r="D593" s="77"/>
+      <c r="D593" s="74"/>
       <c r="E593" s="21"/>
     </row>
     <row r="594" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="17"/>
-      <c r="D594" s="77"/>
+      <c r="D594" s="74"/>
       <c r="E594" s="21"/>
     </row>
     <row r="595" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="17"/>
-      <c r="D595" s="77"/>
+      <c r="D595" s="74"/>
       <c r="E595" s="21"/>
     </row>
     <row r="596" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="17"/>
-      <c r="D596" s="77"/>
+      <c r="D596" s="74"/>
       <c r="E596" s="21"/>
     </row>
     <row r="597" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="17"/>
-      <c r="D597" s="77"/>
+      <c r="D597" s="74"/>
       <c r="E597" s="21"/>
     </row>
     <row r="598" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="17"/>
-      <c r="D598" s="77"/>
+      <c r="D598" s="74"/>
       <c r="E598" s="21"/>
     </row>
     <row r="599" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="17"/>
-      <c r="D599" s="77"/>
+      <c r="D599" s="74"/>
       <c r="E599" s="21"/>
     </row>
     <row r="600" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="17"/>
-      <c r="D600" s="77"/>
+      <c r="D600" s="74"/>
       <c r="E600" s="21"/>
     </row>
     <row r="601" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="17"/>
-      <c r="D601" s="77"/>
+      <c r="D601" s="74"/>
       <c r="E601" s="21"/>
     </row>
     <row r="602" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="17"/>
-      <c r="D602" s="77"/>
+      <c r="D602" s="74"/>
       <c r="E602" s="21"/>
     </row>
     <row r="603" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="17"/>
-      <c r="D603" s="77"/>
+      <c r="D603" s="74"/>
       <c r="E603" s="21"/>
     </row>
     <row r="604" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="17"/>
-      <c r="D604" s="77"/>
+      <c r="D604" s="74"/>
       <c r="E604" s="21"/>
     </row>
     <row r="605" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="17"/>
-      <c r="D605" s="77"/>
+      <c r="D605" s="74"/>
       <c r="E605" s="21"/>
     </row>
     <row r="606" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="17"/>
-      <c r="D606" s="77"/>
+      <c r="D606" s="74"/>
       <c r="E606" s="21"/>
     </row>
     <row r="607" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="17"/>
-      <c r="D607" s="77"/>
+      <c r="D607" s="74"/>
       <c r="E607" s="21"/>
     </row>
     <row r="608" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="17"/>
-      <c r="D608" s="77"/>
+      <c r="D608" s="74"/>
       <c r="E608" s="21"/>
     </row>
     <row r="609" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="17"/>
-      <c r="D609" s="77"/>
+      <c r="D609" s="74"/>
       <c r="E609" s="21"/>
     </row>
     <row r="610" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="17"/>
-      <c r="D610" s="77"/>
+      <c r="D610" s="74"/>
       <c r="E610" s="21"/>
     </row>
     <row r="611" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="17"/>
-      <c r="D611" s="77"/>
+      <c r="D611" s="74"/>
       <c r="E611" s="21"/>
     </row>
     <row r="612" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="17"/>
-      <c r="D612" s="77"/>
+      <c r="D612" s="74"/>
       <c r="E612" s="21"/>
     </row>
     <row r="613" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="17"/>
-      <c r="D613" s="77"/>
+      <c r="D613" s="74"/>
       <c r="E613" s="21"/>
     </row>
     <row r="614" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="17"/>
-      <c r="D614" s="77"/>
+      <c r="D614" s="74"/>
       <c r="E614" s="21"/>
     </row>
     <row r="615" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="17"/>
-      <c r="D615" s="77"/>
+      <c r="D615" s="74"/>
       <c r="E615" s="21"/>
     </row>
     <row r="616" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="17"/>
-      <c r="D616" s="77"/>
+      <c r="D616" s="74"/>
       <c r="E616" s="21"/>
     </row>
     <row r="617" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="17"/>
-      <c r="D617" s="77"/>
+      <c r="D617" s="74"/>
       <c r="E617" s="21"/>
     </row>
     <row r="618" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="17"/>
-      <c r="D618" s="77"/>
+      <c r="D618" s="74"/>
       <c r="E618" s="21"/>
     </row>
     <row r="619" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="17"/>
-      <c r="D619" s="77"/>
+      <c r="D619" s="74"/>
       <c r="E619" s="21"/>
     </row>
     <row r="620" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="17"/>
-      <c r="D620" s="77"/>
+      <c r="D620" s="74"/>
       <c r="E620" s="21"/>
     </row>
     <row r="621" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="17"/>
-      <c r="D621" s="77"/>
+      <c r="D621" s="74"/>
       <c r="E621" s="21"/>
     </row>
     <row r="622" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="17"/>
-      <c r="D622" s="77"/>
+      <c r="D622" s="74"/>
       <c r="E622" s="21"/>
     </row>
     <row r="623" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="17"/>
-      <c r="D623" s="77"/>
+      <c r="D623" s="74"/>
       <c r="E623" s="21"/>
     </row>
     <row r="624" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="17"/>
-      <c r="D624" s="77"/>
+      <c r="D624" s="74"/>
       <c r="E624" s="21"/>
     </row>
     <row r="625" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="17"/>
-      <c r="D625" s="77"/>
+      <c r="D625" s="74"/>
       <c r="E625" s="21"/>
     </row>
     <row r="626" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="17"/>
-      <c r="D626" s="77"/>
+      <c r="D626" s="74"/>
       <c r="E626" s="21"/>
     </row>
     <row r="627" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="17"/>
-      <c r="D627" s="77"/>
+      <c r="D627" s="74"/>
       <c r="E627" s="21"/>
     </row>
     <row r="628" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="17"/>
-      <c r="D628" s="77"/>
+      <c r="D628" s="74"/>
       <c r="E628" s="21"/>
     </row>
     <row r="629" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="17"/>
-      <c r="D629" s="77"/>
+      <c r="D629" s="74"/>
       <c r="E629" s="21"/>
     </row>
     <row r="630" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="17"/>
-      <c r="D630" s="77"/>
+      <c r="D630" s="74"/>
       <c r="E630" s="21"/>
     </row>
     <row r="631" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="17"/>
-      <c r="D631" s="77"/>
+      <c r="D631" s="74"/>
       <c r="E631" s="21"/>
     </row>
     <row r="632" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="17"/>
-      <c r="D632" s="77"/>
+      <c r="D632" s="74"/>
       <c r="E632" s="21"/>
     </row>
     <row r="633" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="17"/>
-      <c r="D633" s="77"/>
+      <c r="D633" s="74"/>
       <c r="E633" s="21"/>
     </row>
     <row r="634" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="17"/>
-      <c r="D634" s="77"/>
+      <c r="D634" s="74"/>
       <c r="E634" s="21"/>
     </row>
     <row r="635" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="17"/>
-      <c r="D635" s="77"/>
+      <c r="D635" s="74"/>
       <c r="E635" s="21"/>
     </row>
     <row r="636" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="17"/>
-      <c r="D636" s="77"/>
+      <c r="D636" s="74"/>
       <c r="E636" s="21"/>
     </row>
     <row r="637" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="17"/>
-      <c r="D637" s="77"/>
+      <c r="D637" s="74"/>
       <c r="E637" s="21"/>
     </row>
     <row r="638" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="17"/>
-      <c r="D638" s="77"/>
+      <c r="D638" s="74"/>
       <c r="E638" s="21"/>
     </row>
     <row r="639" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="17"/>
-      <c r="D639" s="77"/>
+      <c r="D639" s="74"/>
       <c r="E639" s="21"/>
     </row>
     <row r="640" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="17"/>
-      <c r="D640" s="77"/>
+      <c r="D640" s="74"/>
       <c r="E640" s="21"/>
     </row>
     <row r="641" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="17"/>
-      <c r="D641" s="77"/>
+      <c r="D641" s="74"/>
       <c r="E641" s="21"/>
     </row>
     <row r="642" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="17"/>
-      <c r="D642" s="77"/>
+      <c r="D642" s="74"/>
       <c r="E642" s="21"/>
     </row>
     <row r="643" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="17"/>
-      <c r="D643" s="77"/>
+      <c r="D643" s="74"/>
       <c r="E643" s="21"/>
     </row>
     <row r="644" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="17"/>
-      <c r="D644" s="77"/>
+      <c r="D644" s="74"/>
       <c r="E644" s="21"/>
     </row>
     <row r="645" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="17"/>
-      <c r="D645" s="77"/>
+      <c r="D645" s="74"/>
       <c r="E645" s="21"/>
     </row>
     <row r="646" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="17"/>
-      <c r="D646" s="77"/>
+      <c r="D646" s="74"/>
       <c r="E646" s="21"/>
     </row>
     <row r="647" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="17"/>
-      <c r="D647" s="77"/>
+      <c r="D647" s="74"/>
       <c r="E647" s="21"/>
     </row>
     <row r="648" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="17"/>
-      <c r="D648" s="77"/>
+      <c r="D648" s="74"/>
       <c r="E648" s="21"/>
     </row>
     <row r="649" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="17"/>
-      <c r="D649" s="77"/>
+      <c r="D649" s="74"/>
       <c r="E649" s="21"/>
     </row>
     <row r="650" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="17"/>
-      <c r="D650" s="77"/>
+      <c r="D650" s="74"/>
       <c r="E650" s="21"/>
     </row>
     <row r="651" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="17"/>
-      <c r="D651" s="77"/>
+      <c r="D651" s="74"/>
       <c r="E651" s="21"/>
     </row>
     <row r="652" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="17"/>
-      <c r="D652" s="77"/>
+      <c r="D652" s="74"/>
       <c r="E652" s="21"/>
     </row>
     <row r="653" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="17"/>
-      <c r="D653" s="77"/>
+      <c r="D653" s="74"/>
       <c r="E653" s="21"/>
     </row>
     <row r="654" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="17"/>
-      <c r="D654" s="77"/>
+      <c r="D654" s="74"/>
       <c r="E654" s="21"/>
     </row>
     <row r="655" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="17"/>
-      <c r="D655" s="77"/>
+      <c r="D655" s="74"/>
       <c r="E655" s="21"/>
     </row>
     <row r="656" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="17"/>
-      <c r="D656" s="77"/>
+      <c r="D656" s="74"/>
       <c r="E656" s="21"/>
     </row>
     <row r="657" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="17"/>
-      <c r="D657" s="77"/>
+      <c r="D657" s="74"/>
       <c r="E657" s="21"/>
     </row>
     <row r="658" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="17"/>
-      <c r="D658" s="77"/>
+      <c r="D658" s="74"/>
       <c r="E658" s="21"/>
     </row>
     <row r="659" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="17"/>
-      <c r="D659" s="77"/>
+      <c r="D659" s="74"/>
       <c r="E659" s="21"/>
     </row>
     <row r="660" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="17"/>
-      <c r="D660" s="77"/>
+      <c r="D660" s="74"/>
       <c r="E660" s="21"/>
     </row>
     <row r="661" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="17"/>
-      <c r="D661" s="77"/>
+      <c r="D661" s="74"/>
       <c r="E661" s="21"/>
     </row>
     <row r="662" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="17"/>
-      <c r="D662" s="77"/>
+      <c r="D662" s="74"/>
       <c r="E662" s="21"/>
     </row>
     <row r="663" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="17"/>
-      <c r="D663" s="77"/>
+      <c r="D663" s="74"/>
       <c r="E663" s="21"/>
     </row>
     <row r="664" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="17"/>
-      <c r="D664" s="77"/>
+      <c r="D664" s="74"/>
       <c r="E664" s="21"/>
     </row>
     <row r="665" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="17"/>
-      <c r="D665" s="77"/>
+      <c r="D665" s="74"/>
       <c r="E665" s="21"/>
     </row>
     <row r="666" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="17"/>
-      <c r="D666" s="77"/>
+      <c r="D666" s="74"/>
       <c r="E666" s="21"/>
     </row>
     <row r="667" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="17"/>
-      <c r="D667" s="77"/>
+      <c r="D667" s="74"/>
       <c r="E667" s="21"/>
     </row>
     <row r="668" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="17"/>
-      <c r="D668" s="77"/>
+      <c r="D668" s="74"/>
       <c r="E668" s="21"/>
     </row>
     <row r="669" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="17"/>
-      <c r="D669" s="77"/>
+      <c r="D669" s="74"/>
       <c r="E669" s="21"/>
     </row>
     <row r="670" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="17"/>
-      <c r="D670" s="77"/>
+      <c r="D670" s="74"/>
       <c r="E670" s="21"/>
     </row>
     <row r="671" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="17"/>
-      <c r="D671" s="77"/>
+      <c r="D671" s="74"/>
       <c r="E671" s="21"/>
     </row>
     <row r="672" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="17"/>
-      <c r="D672" s="77"/>
+      <c r="D672" s="74"/>
       <c r="E672" s="21"/>
     </row>
     <row r="673" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="17"/>
-      <c r="D673" s="77"/>
+      <c r="D673" s="74"/>
       <c r="E673" s="21"/>
     </row>
     <row r="674" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="17"/>
-      <c r="D674" s="77"/>
+      <c r="D674" s="74"/>
       <c r="E674" s="21"/>
     </row>
     <row r="675" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="17"/>
-      <c r="D675" s="77"/>
+      <c r="D675" s="74"/>
       <c r="E675" s="21"/>
     </row>
     <row r="676" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="17"/>
-      <c r="D676" s="77"/>
+      <c r="D676" s="74"/>
       <c r="E676" s="21"/>
     </row>
     <row r="677" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="17"/>
-      <c r="D677" s="77"/>
+      <c r="D677" s="74"/>
       <c r="E677" s="21"/>
     </row>
     <row r="678" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="17"/>
-      <c r="D678" s="77"/>
+      <c r="D678" s="74"/>
       <c r="E678" s="21"/>
     </row>
     <row r="679" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="17"/>
-      <c r="D679" s="77"/>
+      <c r="D679" s="74"/>
       <c r="E679" s="21"/>
     </row>
     <row r="680" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="17"/>
-      <c r="D680" s="77"/>
+      <c r="D680" s="74"/>
       <c r="E680" s="21"/>
     </row>
     <row r="681" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="17"/>
-      <c r="D681" s="77"/>
+      <c r="D681" s="74"/>
       <c r="E681" s="21"/>
     </row>
     <row r="682" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="17"/>
-      <c r="D682" s="77"/>
+      <c r="D682" s="74"/>
       <c r="E682" s="21"/>
     </row>
     <row r="683" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="17"/>
-      <c r="D683" s="77"/>
+      <c r="D683" s="74"/>
       <c r="E683" s="21"/>
     </row>
     <row r="684" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="17"/>
-      <c r="D684" s="77"/>
+      <c r="D684" s="74"/>
       <c r="E684" s="21"/>
     </row>
     <row r="685" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="17"/>
-      <c r="D685" s="77"/>
+      <c r="D685" s="74"/>
       <c r="E685" s="21"/>
     </row>
     <row r="686" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="17"/>
-      <c r="D686" s="77"/>
+      <c r="D686" s="74"/>
       <c r="E686" s="21"/>
     </row>
     <row r="687" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="17"/>
-      <c r="D687" s="77"/>
+      <c r="D687" s="74"/>
       <c r="E687" s="21"/>
     </row>
     <row r="688" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="17"/>
-      <c r="D688" s="77"/>
+      <c r="D688" s="74"/>
       <c r="E688" s="21"/>
     </row>
     <row r="689" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="17"/>
-      <c r="D689" s="77"/>
+      <c r="D689" s="74"/>
       <c r="E689" s="21"/>
     </row>
     <row r="690" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="17"/>
-      <c r="D690" s="77"/>
+      <c r="D690" s="74"/>
       <c r="E690" s="21"/>
     </row>
     <row r="691" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="17"/>
-      <c r="D691" s="77"/>
+      <c r="D691" s="74"/>
       <c r="E691" s="21"/>
     </row>
     <row r="692" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="17"/>
-      <c r="D692" s="77"/>
+      <c r="D692" s="74"/>
       <c r="E692" s="21"/>
     </row>
     <row r="693" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="17"/>
-      <c r="D693" s="77"/>
+      <c r="D693" s="74"/>
       <c r="E693" s="21"/>
     </row>
     <row r="694" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="17"/>
-      <c r="D694" s="77"/>
+      <c r="D694" s="74"/>
       <c r="E694" s="21"/>
     </row>
     <row r="695" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="17"/>
-      <c r="D695" s="77"/>
+      <c r="D695" s="74"/>
       <c r="E695" s="21"/>
     </row>
     <row r="696" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="17"/>
-      <c r="D696" s="77"/>
+      <c r="D696" s="74"/>
       <c r="E696" s="21"/>
     </row>
     <row r="697" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="17"/>
-      <c r="D697" s="77"/>
+      <c r="D697" s="74"/>
       <c r="E697" s="21"/>
     </row>
     <row r="698" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="17"/>
-      <c r="D698" s="77"/>
+      <c r="D698" s="74"/>
       <c r="E698" s="21"/>
     </row>
     <row r="699" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="17"/>
-      <c r="D699" s="77"/>
+      <c r="D699" s="74"/>
       <c r="E699" s="21"/>
     </row>
     <row r="700" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="17"/>
-      <c r="D700" s="77"/>
+      <c r="D700" s="74"/>
       <c r="E700" s="21"/>
     </row>
     <row r="701" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="17"/>
-      <c r="D701" s="77"/>
+      <c r="D701" s="74"/>
       <c r="E701" s="21"/>
     </row>
     <row r="702" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="17"/>
-      <c r="D702" s="77"/>
+      <c r="D702" s="74"/>
       <c r="E702" s="21"/>
     </row>
     <row r="703" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="17"/>
-      <c r="D703" s="77"/>
+      <c r="D703" s="74"/>
       <c r="E703" s="21"/>
     </row>
     <row r="704" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="17"/>
-      <c r="D704" s="77"/>
+      <c r="D704" s="74"/>
       <c r="E704" s="21"/>
     </row>
     <row r="705" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="17"/>
-      <c r="D705" s="77"/>
+      <c r="D705" s="74"/>
       <c r="E705" s="21"/>
     </row>
     <row r="706" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="17"/>
-      <c r="D706" s="77"/>
+      <c r="D706" s="74"/>
       <c r="E706" s="21"/>
     </row>
     <row r="707" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="17"/>
-      <c r="D707" s="77"/>
+      <c r="D707" s="74"/>
       <c r="E707" s="21"/>
     </row>
     <row r="708" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="17"/>
-      <c r="D708" s="77"/>
+      <c r="D708" s="74"/>
       <c r="E708" s="21"/>
     </row>
     <row r="709" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="17"/>
-      <c r="D709" s="77"/>
+      <c r="D709" s="74"/>
       <c r="E709" s="21"/>
     </row>
     <row r="710" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="17"/>
-      <c r="D710" s="77"/>
+      <c r="D710" s="74"/>
       <c r="E710" s="21"/>
     </row>
     <row r="711" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="17"/>
-      <c r="D711" s="77"/>
+      <c r="D711" s="74"/>
       <c r="E711" s="21"/>
     </row>
     <row r="712" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="17"/>
-      <c r="D712" s="77"/>
+      <c r="D712" s="74"/>
       <c r="E712" s="21"/>
     </row>
     <row r="713" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="17"/>
-      <c r="D713" s="77"/>
+      <c r="D713" s="74"/>
       <c r="E713" s="21"/>
     </row>
     <row r="714" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="17"/>
-      <c r="D714" s="77"/>
+      <c r="D714" s="74"/>
       <c r="E714" s="21"/>
     </row>
     <row r="715" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="17"/>
-      <c r="D715" s="77"/>
+      <c r="D715" s="74"/>
       <c r="E715" s="21"/>
     </row>
     <row r="716" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="17"/>
-      <c r="D716" s="77"/>
+      <c r="D716" s="74"/>
       <c r="E716" s="21"/>
     </row>
     <row r="717" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="17"/>
-      <c r="D717" s="77"/>
+      <c r="D717" s="74"/>
       <c r="E717" s="21"/>
     </row>
     <row r="718" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="17"/>
-      <c r="D718" s="77"/>
+      <c r="D718" s="74"/>
       <c r="E718" s="21"/>
     </row>
     <row r="719" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="17"/>
-      <c r="D719" s="77"/>
+      <c r="D719" s="74"/>
       <c r="E719" s="21"/>
     </row>
     <row r="720" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="17"/>
-      <c r="D720" s="77"/>
+      <c r="D720" s="74"/>
       <c r="E720" s="21"/>
     </row>
     <row r="721" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="17"/>
-      <c r="D721" s="77"/>
+      <c r="D721" s="74"/>
       <c r="E721" s="21"/>
     </row>
     <row r="722" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="17"/>
-      <c r="D722" s="77"/>
+      <c r="D722" s="74"/>
       <c r="E722" s="21"/>
     </row>
     <row r="723" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="17"/>
-      <c r="D723" s="77"/>
+      <c r="D723" s="74"/>
       <c r="E723" s="21"/>
     </row>
     <row r="724" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="17"/>
-      <c r="D724" s="77"/>
+      <c r="D724" s="74"/>
       <c r="E724" s="21"/>
     </row>
     <row r="725" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="17"/>
-      <c r="D725" s="77"/>
+      <c r="D725" s="74"/>
       <c r="E725" s="21"/>
     </row>
     <row r="726" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="17"/>
-      <c r="D726" s="77"/>
+      <c r="D726" s="74"/>
       <c r="E726" s="21"/>
     </row>
     <row r="727" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="17"/>
-      <c r="D727" s="77"/>
+      <c r="D727" s="74"/>
       <c r="E727" s="21"/>
     </row>
     <row r="728" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="17"/>
-      <c r="D728" s="77"/>
+      <c r="D728" s="74"/>
       <c r="E728" s="21"/>
     </row>
     <row r="729" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="17"/>
-      <c r="D729" s="77"/>
+      <c r="D729" s="74"/>
       <c r="E729" s="21"/>
     </row>
     <row r="730" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="17"/>
-      <c r="D730" s="77"/>
+      <c r="D730" s="74"/>
       <c r="E730" s="21"/>
     </row>
     <row r="731" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="17"/>
-      <c r="D731" s="77"/>
+      <c r="D731" s="74"/>
       <c r="E731" s="21"/>
     </row>
     <row r="732" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="17"/>
-      <c r="D732" s="77"/>
+      <c r="D732" s="74"/>
       <c r="E732" s="21"/>
     </row>
     <row r="733" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="17"/>
-      <c r="D733" s="77"/>
+      <c r="D733" s="74"/>
       <c r="E733" s="21"/>
     </row>
     <row r="734" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="17"/>
-      <c r="D734" s="77"/>
+      <c r="D734" s="74"/>
       <c r="E734" s="21"/>
     </row>
     <row r="735" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="17"/>
-      <c r="D735" s="77"/>
+      <c r="D735" s="74"/>
       <c r="E735" s="21"/>
     </row>
     <row r="736" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="17"/>
-      <c r="D736" s="77"/>
+      <c r="D736" s="74"/>
       <c r="E736" s="21"/>
     </row>
     <row r="737" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="17"/>
-      <c r="D737" s="77"/>
+      <c r="D737" s="74"/>
       <c r="E737" s="21"/>
     </row>
     <row r="738" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="17"/>
-      <c r="D738" s="77"/>
+      <c r="D738" s="74"/>
       <c r="E738" s="21"/>
     </row>
     <row r="739" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="17"/>
-      <c r="D739" s="77"/>
+      <c r="D739" s="74"/>
       <c r="E739" s="21"/>
     </row>
     <row r="740" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="17"/>
-      <c r="D740" s="77"/>
+      <c r="D740" s="74"/>
       <c r="E740" s="21"/>
     </row>
     <row r="741" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="17"/>
-      <c r="D741" s="77"/>
+      <c r="D741" s="74"/>
       <c r="E741" s="21"/>
     </row>
     <row r="742" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="17"/>
-      <c r="D742" s="77"/>
+      <c r="D742" s="74"/>
       <c r="E742" s="21"/>
     </row>
     <row r="743" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="17"/>
-      <c r="D743" s="77"/>
+      <c r="D743" s="74"/>
       <c r="E743" s="21"/>
     </row>
     <row r="744" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="17"/>
-      <c r="D744" s="77"/>
+      <c r="D744" s="74"/>
       <c r="E744" s="21"/>
     </row>
     <row r="745" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="17"/>
-      <c r="D745" s="77"/>
+      <c r="D745" s="74"/>
       <c r="E745" s="21"/>
     </row>
     <row r="746" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="17"/>
-      <c r="D746" s="77"/>
+      <c r="D746" s="74"/>
       <c r="E746" s="21"/>
     </row>
     <row r="747" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="17"/>
-      <c r="D747" s="77"/>
+      <c r="D747" s="74"/>
       <c r="E747" s="21"/>
     </row>
     <row r="748" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="17"/>
-      <c r="D748" s="77"/>
+      <c r="D748" s="74"/>
       <c r="E748" s="21"/>
     </row>
     <row r="749" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="17"/>
-      <c r="D749" s="77"/>
+      <c r="D749" s="74"/>
       <c r="E749" s="21"/>
     </row>
     <row r="750" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="17"/>
-      <c r="D750" s="77"/>
+      <c r="D750" s="74"/>
       <c r="E750" s="21"/>
     </row>
     <row r="751" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="17"/>
-      <c r="D751" s="77"/>
+      <c r="D751" s="74"/>
       <c r="E751" s="21"/>
     </row>
     <row r="752" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="17"/>
-      <c r="D752" s="77"/>
+      <c r="D752" s="74"/>
       <c r="E752" s="21"/>
     </row>
     <row r="753" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="17"/>
-      <c r="D753" s="77"/>
+      <c r="D753" s="74"/>
       <c r="E753" s="21"/>
     </row>
     <row r="754" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="17"/>
-      <c r="D754" s="77"/>
+      <c r="D754" s="74"/>
       <c r="E754" s="21"/>
     </row>
     <row r="755" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="17"/>
-      <c r="D755" s="77"/>
+      <c r="D755" s="74"/>
       <c r="E755" s="21"/>
     </row>
     <row r="756" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="17"/>
-      <c r="D756" s="77"/>
+      <c r="D756" s="74"/>
       <c r="E756" s="21"/>
     </row>
     <row r="757" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="17"/>
-      <c r="D757" s="77"/>
+      <c r="D757" s="74"/>
       <c r="E757" s="21"/>
     </row>
     <row r="758" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="17"/>
-      <c r="D758" s="77"/>
+      <c r="D758" s="74"/>
       <c r="E758" s="21"/>
     </row>
     <row r="759" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="17"/>
-      <c r="D759" s="77"/>
+      <c r="D759" s="74"/>
       <c r="E759" s="21"/>
     </row>
     <row r="760" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="17"/>
-      <c r="D760" s="77"/>
+      <c r="D760" s="74"/>
       <c r="E760" s="21"/>
     </row>
     <row r="761" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="17"/>
-      <c r="D761" s="77"/>
+      <c r="D761" s="74"/>
       <c r="E761" s="21"/>
     </row>
     <row r="762" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="17"/>
-      <c r="D762" s="77"/>
+      <c r="D762" s="74"/>
       <c r="E762" s="21"/>
     </row>
     <row r="763" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="17"/>
-      <c r="D763" s="77"/>
+      <c r="D763" s="74"/>
       <c r="E763" s="21"/>
     </row>
     <row r="764" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="17"/>
-      <c r="D764" s="77"/>
+      <c r="D764" s="74"/>
       <c r="E764" s="21"/>
     </row>
     <row r="765" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="17"/>
-      <c r="D765" s="77"/>
+      <c r="D765" s="74"/>
       <c r="E765" s="21"/>
     </row>
     <row r="766" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="17"/>
-      <c r="D766" s="77"/>
+      <c r="D766" s="74"/>
       <c r="E766" s="21"/>
     </row>
     <row r="767" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="17"/>
-      <c r="D767" s="77"/>
+      <c r="D767" s="74"/>
       <c r="E767" s="21"/>
     </row>
     <row r="768" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="17"/>
-      <c r="D768" s="77"/>
+      <c r="D768" s="74"/>
       <c r="E768" s="21"/>
     </row>
     <row r="769" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="17"/>
-      <c r="D769" s="77"/>
+      <c r="D769" s="74"/>
       <c r="E769" s="21"/>
     </row>
     <row r="770" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="17"/>
-      <c r="D770" s="77"/>
+      <c r="D770" s="74"/>
       <c r="E770" s="21"/>
     </row>
     <row r="771" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="17"/>
-      <c r="D771" s="77"/>
+      <c r="D771" s="74"/>
       <c r="E771" s="21"/>
     </row>
     <row r="772" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="17"/>
-      <c r="D772" s="77"/>
+      <c r="D772" s="74"/>
       <c r="E772" s="21"/>
     </row>
     <row r="773" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="17"/>
-      <c r="D773" s="77"/>
+      <c r="D773" s="74"/>
       <c r="E773" s="21"/>
     </row>
     <row r="774" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="17"/>
-      <c r="D774" s="77"/>
+      <c r="D774" s="74"/>
       <c r="E774" s="21"/>
     </row>
     <row r="775" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="17"/>
-      <c r="D775" s="77"/>
+      <c r="D775" s="74"/>
       <c r="E775" s="21"/>
     </row>
     <row r="776" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="17"/>
-      <c r="D776" s="77"/>
+      <c r="D776" s="74"/>
       <c r="E776" s="21"/>
     </row>
     <row r="777" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="17"/>
-      <c r="D777" s="77"/>
+      <c r="D777" s="74"/>
       <c r="E777" s="21"/>
     </row>
     <row r="778" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="17"/>
-      <c r="D778" s="77"/>
+      <c r="D778" s="74"/>
       <c r="E778" s="21"/>
     </row>
     <row r="779" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="17"/>
-      <c r="D779" s="77"/>
+      <c r="D779" s="74"/>
       <c r="E779" s="21"/>
     </row>
     <row r="780" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="17"/>
-      <c r="D780" s="77"/>
+      <c r="D780" s="74"/>
       <c r="E780" s="21"/>
     </row>
     <row r="781" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="17"/>
-      <c r="D781" s="77"/>
+      <c r="D781" s="74"/>
       <c r="E781" s="21"/>
     </row>
     <row r="782" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="17"/>
-      <c r="D782" s="77"/>
+      <c r="D782" s="74"/>
       <c r="E782" s="21"/>
     </row>
     <row r="783" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="17"/>
-      <c r="D783" s="77"/>
+      <c r="D783" s="74"/>
       <c r="E783" s="21"/>
     </row>
     <row r="784" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="17"/>
-      <c r="D784" s="77"/>
+      <c r="D784" s="74"/>
       <c r="E784" s="21"/>
     </row>
     <row r="785" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="17"/>
-      <c r="D785" s="77"/>
+      <c r="D785" s="74"/>
       <c r="E785" s="21"/>
     </row>
     <row r="786" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="17"/>
-      <c r="D786" s="77"/>
+      <c r="D786" s="74"/>
       <c r="E786" s="21"/>
     </row>
     <row r="787" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="17"/>
-      <c r="D787" s="77"/>
+      <c r="D787" s="74"/>
       <c r="E787" s="21"/>
     </row>
     <row r="788" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="17"/>
-      <c r="D788" s="77"/>
+      <c r="D788" s="74"/>
       <c r="E788" s="21"/>
     </row>
     <row r="789" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="17"/>
-      <c r="D789" s="77"/>
+      <c r="D789" s="74"/>
       <c r="E789" s="21"/>
     </row>
     <row r="790" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="17"/>
-      <c r="D790" s="77"/>
+      <c r="D790" s="74"/>
       <c r="E790" s="21"/>
     </row>
     <row r="791" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="17"/>
-      <c r="D791" s="77"/>
+      <c r="D791" s="74"/>
       <c r="E791" s="21"/>
     </row>
     <row r="792" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="17"/>
-      <c r="D792" s="77"/>
+      <c r="D792" s="74"/>
       <c r="E792" s="21"/>
     </row>
     <row r="793" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="17"/>
-      <c r="D793" s="77"/>
+      <c r="D793" s="74"/>
       <c r="E793" s="21"/>
     </row>
     <row r="794" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="17"/>
-      <c r="D794" s="77"/>
+      <c r="D794" s="74"/>
       <c r="E794" s="21"/>
     </row>
     <row r="795" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="17"/>
-      <c r="D795" s="77"/>
+      <c r="D795" s="74"/>
       <c r="E795" s="21"/>
     </row>
     <row r="796" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="17"/>
-      <c r="D796" s="77"/>
+      <c r="D796" s="74"/>
       <c r="E796" s="21"/>
     </row>
     <row r="797" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="17"/>
-      <c r="D797" s="77"/>
+      <c r="D797" s="74"/>
       <c r="E797" s="21"/>
     </row>
     <row r="798" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="17"/>
-      <c r="D798" s="77"/>
+      <c r="D798" s="74"/>
       <c r="E798" s="21"/>
     </row>
     <row r="799" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="17"/>
-      <c r="D799" s="77"/>
+      <c r="D799" s="74"/>
       <c r="E799" s="21"/>
     </row>
     <row r="800" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="17"/>
-      <c r="D800" s="77"/>
+      <c r="D800" s="74"/>
       <c r="E800" s="21"/>
     </row>
     <row r="801" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="17"/>
-      <c r="D801" s="77"/>
+      <c r="D801" s="74"/>
       <c r="E801" s="21"/>
     </row>
     <row r="802" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="17"/>
-      <c r="D802" s="77"/>
+      <c r="D802" s="74"/>
       <c r="E802" s="21"/>
     </row>
     <row r="803" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="17"/>
-      <c r="D803" s="77"/>
+      <c r="D803" s="74"/>
       <c r="E803" s="21"/>
     </row>
     <row r="804" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="17"/>
-      <c r="D804" s="77"/>
+      <c r="D804" s="74"/>
       <c r="E804" s="21"/>
     </row>
     <row r="805" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="17"/>
-      <c r="D805" s="77"/>
+      <c r="D805" s="74"/>
       <c r="E805" s="21"/>
     </row>
     <row r="806" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="17"/>
-      <c r="D806" s="77"/>
+      <c r="D806" s="74"/>
       <c r="E806" s="21"/>
     </row>
     <row r="807" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="17"/>
-      <c r="D807" s="77"/>
+      <c r="D807" s="74"/>
       <c r="E807" s="21"/>
     </row>
     <row r="808" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="17"/>
-      <c r="D808" s="77"/>
+      <c r="D808" s="74"/>
       <c r="E808" s="21"/>
     </row>
     <row r="809" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="17"/>
-      <c r="D809" s="77"/>
+      <c r="D809" s="74"/>
       <c r="E809" s="21"/>
     </row>
     <row r="810" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="17"/>
-      <c r="D810" s="77"/>
+      <c r="D810" s="74"/>
       <c r="E810" s="21"/>
     </row>
     <row r="811" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="17"/>
-      <c r="D811" s="77"/>
+      <c r="D811" s="74"/>
       <c r="E811" s="21"/>
     </row>
     <row r="812" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="17"/>
-      <c r="D812" s="77"/>
+      <c r="D812" s="74"/>
       <c r="E812" s="21"/>
     </row>
     <row r="813" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="17"/>
-      <c r="D813" s="77"/>
+      <c r="D813" s="74"/>
       <c r="E813" s="21"/>
     </row>
     <row r="814" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="17"/>
-      <c r="D814" s="77"/>
+      <c r="D814" s="74"/>
       <c r="E814" s="21"/>
     </row>
     <row r="815" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="17"/>
-      <c r="D815" s="77"/>
+      <c r="D815" s="74"/>
       <c r="E815" s="21"/>
     </row>
     <row r="816" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="17"/>
-      <c r="D816" s="77"/>
+      <c r="D816" s="74"/>
       <c r="E816" s="21"/>
     </row>
     <row r="817" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="17"/>
-      <c r="D817" s="77"/>
+      <c r="D817" s="74"/>
       <c r="E817" s="21"/>
     </row>
     <row r="818" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="17"/>
-      <c r="D818" s="77"/>
+      <c r="D818" s="74"/>
       <c r="E818" s="21"/>
     </row>
     <row r="819" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="17"/>
-      <c r="D819" s="77"/>
+      <c r="D819" s="74"/>
       <c r="E819" s="21"/>
     </row>
     <row r="820" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="17"/>
-      <c r="D820" s="77"/>
+      <c r="D820" s="74"/>
       <c r="E820" s="21"/>
     </row>
     <row r="821" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="17"/>
-      <c r="D821" s="77"/>
+      <c r="D821" s="74"/>
       <c r="E821" s="21"/>
     </row>
     <row r="822" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="17"/>
-      <c r="D822" s="77"/>
+      <c r="D822" s="74"/>
       <c r="E822" s="21"/>
     </row>
     <row r="823" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="17"/>
-      <c r="D823" s="77"/>
+      <c r="D823" s="74"/>
       <c r="E823" s="21"/>
     </row>
     <row r="824" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="17"/>
-      <c r="D824" s="77"/>
+      <c r="D824" s="74"/>
       <c r="E824" s="21"/>
     </row>
     <row r="825" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="17"/>
-      <c r="D825" s="77"/>
+      <c r="D825" s="74"/>
       <c r="E825" s="21"/>
     </row>
     <row r="826" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="17"/>
-      <c r="D826" s="77"/>
+      <c r="D826" s="74"/>
       <c r="E826" s="21"/>
     </row>
     <row r="827" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="17"/>
-      <c r="D827" s="77"/>
+      <c r="D827" s="74"/>
       <c r="E827" s="21"/>
     </row>
     <row r="828" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="17"/>
-      <c r="D828" s="77"/>
+      <c r="D828" s="74"/>
       <c r="E828" s="21"/>
     </row>
     <row r="829" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="17"/>
-      <c r="D829" s="77"/>
+      <c r="D829" s="74"/>
       <c r="E829" s="21"/>
     </row>
     <row r="830" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="17"/>
-      <c r="D830" s="77"/>
+      <c r="D830" s="74"/>
       <c r="E830" s="21"/>
     </row>
     <row r="831" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="17"/>
-      <c r="D831" s="77"/>
+      <c r="D831" s="74"/>
       <c r="E831" s="21"/>
     </row>
     <row r="832" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="17"/>
-      <c r="D832" s="77"/>
+      <c r="D832" s="74"/>
       <c r="E832" s="21"/>
     </row>
     <row r="833" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="17"/>
-      <c r="D833" s="77"/>
+      <c r="D833" s="74"/>
       <c r="E833" s="21"/>
     </row>
     <row r="834" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="17"/>
-      <c r="D834" s="77"/>
+      <c r="D834" s="74"/>
       <c r="E834" s="21"/>
     </row>
     <row r="835" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="17"/>
-      <c r="D835" s="77"/>
+      <c r="D835" s="74"/>
       <c r="E835" s="21"/>
     </row>
     <row r="836" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="17"/>
-      <c r="D836" s="77"/>
+      <c r="D836" s="74"/>
       <c r="E836" s="21"/>
     </row>
     <row r="837" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="17"/>
-      <c r="D837" s="77"/>
+      <c r="D837" s="74"/>
       <c r="E837" s="21"/>
     </row>
     <row r="838" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="17"/>
-      <c r="D838" s="77"/>
+      <c r="D838" s="74"/>
       <c r="E838" s="21"/>
     </row>
     <row r="839" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="17"/>
-      <c r="D839" s="77"/>
+      <c r="D839" s="74"/>
       <c r="E839" s="21"/>
     </row>
     <row r="840" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="17"/>
-      <c r="D840" s="77"/>
+      <c r="D840" s="74"/>
       <c r="E840" s="21"/>
     </row>
     <row r="841" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="17"/>
-      <c r="D841" s="77"/>
+      <c r="D841" s="74"/>
       <c r="E841" s="21"/>
     </row>
     <row r="842" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="17"/>
-      <c r="D842" s="77"/>
+      <c r="D842" s="74"/>
       <c r="E842" s="21"/>
     </row>
     <row r="843" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="17"/>
-      <c r="D843" s="77"/>
+      <c r="D843" s="74"/>
       <c r="E843" s="21"/>
     </row>
     <row r="844" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="17"/>
-      <c r="D844" s="77"/>
+      <c r="D844" s="74"/>
       <c r="E844" s="21"/>
     </row>
     <row r="845" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="17"/>
-      <c r="D845" s="77"/>
+      <c r="D845" s="74"/>
       <c r="E845" s="21"/>
     </row>
     <row r="846" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="17"/>
-      <c r="D846" s="77"/>
+      <c r="D846" s="74"/>
       <c r="E846" s="21"/>
     </row>
     <row r="847" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="17"/>
-      <c r="D847" s="77"/>
+      <c r="D847" s="74"/>
       <c r="E847" s="21"/>
     </row>
     <row r="848" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="17"/>
-      <c r="D848" s="77"/>
+      <c r="D848" s="74"/>
       <c r="E848" s="21"/>
     </row>
     <row r="849" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="17"/>
-      <c r="D849" s="77"/>
+      <c r="D849" s="74"/>
       <c r="E849" s="21"/>
     </row>
     <row r="850" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="17"/>
-      <c r="D850" s="77"/>
+      <c r="D850" s="74"/>
       <c r="E850" s="21"/>
     </row>
     <row r="851" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="17"/>
-      <c r="D851" s="77"/>
+      <c r="D851" s="74"/>
       <c r="E851" s="21"/>
     </row>
     <row r="852" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="17"/>
-      <c r="D852" s="77"/>
+      <c r="D852" s="74"/>
       <c r="E852" s="21"/>
     </row>
     <row r="853" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="17"/>
-      <c r="D853" s="77"/>
+      <c r="D853" s="74"/>
       <c r="E853" s="21"/>
     </row>
     <row r="854" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="17"/>
-      <c r="D854" s="77"/>
+      <c r="D854" s="74"/>
       <c r="E854" s="21"/>
     </row>
     <row r="855" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="17"/>
-      <c r="D855" s="77"/>
+      <c r="D855" s="74"/>
       <c r="E855" s="21"/>
     </row>
     <row r="856" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="17"/>
-      <c r="D856" s="77"/>
+      <c r="D856" s="74"/>
       <c r="E856" s="21"/>
     </row>
     <row r="857" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="17"/>
-      <c r="D857" s="77"/>
+      <c r="D857" s="74"/>
       <c r="E857" s="21"/>
     </row>
     <row r="858" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="17"/>
-      <c r="D858" s="77"/>
+      <c r="D858" s="74"/>
       <c r="E858" s="21"/>
     </row>
     <row r="859" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="17"/>
-      <c r="D859" s="77"/>
+      <c r="D859" s="74"/>
       <c r="E859" s="21"/>
     </row>
     <row r="860" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="17"/>
-      <c r="D860" s="77"/>
+      <c r="D860" s="74"/>
       <c r="E860" s="21"/>
     </row>
     <row r="861" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="17"/>
-      <c r="D861" s="77"/>
+      <c r="D861" s="74"/>
       <c r="E861" s="21"/>
     </row>
     <row r="862" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="17"/>
-      <c r="D862" s="77"/>
+      <c r="D862" s="74"/>
       <c r="E862" s="21"/>
     </row>
     <row r="863" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="17"/>
-      <c r="D863" s="77"/>
+      <c r="D863" s="74"/>
       <c r="E863" s="21"/>
     </row>
     <row r="864" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="17"/>
-      <c r="D864" s="77"/>
+      <c r="D864" s="74"/>
       <c r="E864" s="21"/>
     </row>
     <row r="865" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="17"/>
-      <c r="D865" s="77"/>
+      <c r="D865" s="74"/>
       <c r="E865" s="21"/>
     </row>
     <row r="866" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="17"/>
-      <c r="D866" s="77"/>
+      <c r="D866" s="74"/>
       <c r="E866" s="21"/>
     </row>
     <row r="867" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="17"/>
-      <c r="D867" s="77"/>
+      <c r="D867" s="74"/>
       <c r="E867" s="21"/>
     </row>
     <row r="868" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="17"/>
-      <c r="D868" s="77"/>
+      <c r="D868" s="74"/>
       <c r="E868" s="21"/>
     </row>
     <row r="869" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="17"/>
-      <c r="D869" s="77"/>
+      <c r="D869" s="74"/>
       <c r="E869" s="21"/>
     </row>
     <row r="870" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="17"/>
-      <c r="D870" s="77"/>
+      <c r="D870" s="74"/>
       <c r="E870" s="21"/>
     </row>
     <row r="871" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="17"/>
-      <c r="D871" s="77"/>
+      <c r="D871" s="74"/>
       <c r="E871" s="21"/>
     </row>
     <row r="872" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="17"/>
-      <c r="D872" s="77"/>
+      <c r="D872" s="74"/>
       <c r="E872" s="21"/>
     </row>
     <row r="873" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="17"/>
-      <c r="D873" s="77"/>
+      <c r="D873" s="74"/>
       <c r="E873" s="21"/>
     </row>
     <row r="874" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="17"/>
-      <c r="D874" s="77"/>
+      <c r="D874" s="74"/>
       <c r="E874" s="21"/>
     </row>
     <row r="875" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="17"/>
-      <c r="D875" s="77"/>
+      <c r="D875" s="74"/>
       <c r="E875" s="21"/>
     </row>
     <row r="876" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="17"/>
-      <c r="D876" s="77"/>
+      <c r="D876" s="74"/>
       <c r="E876" s="21"/>
     </row>
     <row r="877" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="17"/>
-      <c r="D877" s="77"/>
+      <c r="D877" s="74"/>
       <c r="E877" s="21"/>
     </row>
     <row r="878" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="17"/>
-      <c r="D878" s="77"/>
+      <c r="D878" s="74"/>
       <c r="E878" s="21"/>
     </row>
     <row r="879" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="17"/>
-      <c r="D879" s="77"/>
+      <c r="D879" s="74"/>
       <c r="E879" s="21"/>
     </row>
     <row r="880" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="17"/>
-      <c r="D880" s="77"/>
+      <c r="D880" s="74"/>
       <c r="E880" s="21"/>
     </row>
     <row r="881" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="17"/>
-      <c r="D881" s="77"/>
+      <c r="D881" s="74"/>
       <c r="E881" s="21"/>
     </row>
     <row r="882" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="17"/>
-      <c r="D882" s="77"/>
+      <c r="D882" s="74"/>
       <c r="E882" s="21"/>
     </row>
     <row r="883" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="17"/>
-      <c r="D883" s="77"/>
+      <c r="D883" s="74"/>
       <c r="E883" s="21"/>
     </row>
     <row r="884" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="17"/>
-      <c r="D884" s="77"/>
+      <c r="D884" s="74"/>
       <c r="E884" s="21"/>
     </row>
     <row r="885" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="17"/>
-      <c r="D885" s="77"/>
+      <c r="D885" s="74"/>
       <c r="E885" s="21"/>
     </row>
     <row r="886" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="17"/>
-      <c r="D886" s="77"/>
+      <c r="D886" s="74"/>
       <c r="E886" s="21"/>
     </row>
     <row r="887" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="17"/>
-      <c r="D887" s="77"/>
+      <c r="D887" s="74"/>
       <c r="E887" s="21"/>
     </row>
     <row r="888" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="17"/>
-      <c r="D888" s="77"/>
+      <c r="D888" s="74"/>
       <c r="E888" s="21"/>
     </row>
     <row r="889" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="17"/>
-      <c r="D889" s="77"/>
+      <c r="D889" s="74"/>
       <c r="E889" s="21"/>
     </row>
     <row r="890" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="17"/>
-      <c r="D890" s="77"/>
+      <c r="D890" s="74"/>
       <c r="E890" s="21"/>
     </row>
     <row r="891" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="17"/>
-      <c r="D891" s="77"/>
+      <c r="D891" s="74"/>
       <c r="E891" s="21"/>
     </row>
     <row r="892" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="17"/>
-      <c r="D892" s="77"/>
+      <c r="D892" s="74"/>
       <c r="E892" s="21"/>
     </row>
     <row r="893" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="17"/>
-      <c r="D893" s="77"/>
+      <c r="D893" s="74"/>
       <c r="E893" s="21"/>
     </row>
     <row r="894" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="17"/>
-      <c r="D894" s="77"/>
+      <c r="D894" s="74"/>
       <c r="E894" s="21"/>
     </row>
     <row r="895" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="17"/>
-      <c r="D895" s="77"/>
+      <c r="D895" s="74"/>
       <c r="E895" s="21"/>
     </row>
     <row r="896" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="17"/>
-      <c r="D896" s="77"/>
+      <c r="D896" s="74"/>
       <c r="E896" s="21"/>
     </row>
     <row r="897" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="17"/>
-      <c r="D897" s="77"/>
+      <c r="D897" s="74"/>
       <c r="E897" s="21"/>
     </row>
     <row r="898" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="17"/>
-      <c r="D898" s="77"/>
+      <c r="D898" s="74"/>
       <c r="E898" s="21"/>
     </row>
     <row r="899" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="17"/>
-      <c r="D899" s="77"/>
+      <c r="D899" s="74"/>
       <c r="E899" s="21"/>
     </row>
     <row r="900" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="17"/>
-      <c r="D900" s="77"/>
+      <c r="D900" s="74"/>
       <c r="E900" s="21"/>
     </row>
     <row r="901" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="17"/>
-      <c r="D901" s="77"/>
+      <c r="D901" s="74"/>
       <c r="E901" s="21"/>
     </row>
     <row r="902" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="17"/>
-      <c r="D902" s="77"/>
+      <c r="D902" s="74"/>
       <c r="E902" s="21"/>
     </row>
     <row r="903" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="17"/>
-      <c r="D903" s="77"/>
+      <c r="D903" s="74"/>
       <c r="E903" s="21"/>
     </row>
     <row r="904" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="17"/>
-      <c r="D904" s="77"/>
+      <c r="D904" s="74"/>
       <c r="E904" s="21"/>
     </row>
     <row r="905" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="17"/>
-      <c r="D905" s="77"/>
+      <c r="D905" s="74"/>
       <c r="E905" s="21"/>
     </row>
     <row r="906" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="17"/>
-      <c r="D906" s="77"/>
+      <c r="D906" s="74"/>
       <c r="E906" s="21"/>
     </row>
     <row r="907" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="17"/>
-      <c r="D907" s="77"/>
+      <c r="D907" s="74"/>
       <c r="E907" s="21"/>
     </row>
     <row r="908" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="17"/>
-      <c r="D908" s="77"/>
+      <c r="D908" s="74"/>
       <c r="E908" s="21"/>
     </row>
     <row r="909" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="17"/>
-      <c r="D909" s="77"/>
+      <c r="D909" s="74"/>
       <c r="E909" s="21"/>
     </row>
     <row r="910" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="17"/>
-      <c r="D910" s="77"/>
+      <c r="D910" s="74"/>
       <c r="E910" s="21"/>
     </row>
     <row r="911" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="17"/>
-      <c r="D911" s="77"/>
+      <c r="D911" s="74"/>
       <c r="E911" s="21"/>
     </row>
     <row r="912" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="17"/>
-      <c r="D912" s="77"/>
+      <c r="D912" s="74"/>
       <c r="E912" s="21"/>
     </row>
     <row r="913" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="17"/>
-      <c r="D913" s="77"/>
+      <c r="D913" s="74"/>
       <c r="E913" s="21"/>
     </row>
     <row r="914" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="17"/>
-      <c r="D914" s="77"/>
+      <c r="D914" s="74"/>
       <c r="E914" s="21"/>
     </row>
     <row r="915" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="17"/>
-      <c r="D915" s="77"/>
+      <c r="D915" s="74"/>
       <c r="E915" s="21"/>
     </row>
     <row r="916" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="17"/>
-      <c r="D916" s="77"/>
+      <c r="D916" s="74"/>
       <c r="E916" s="21"/>
     </row>
     <row r="917" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="17"/>
-      <c r="D917" s="77"/>
+      <c r="D917" s="74"/>
       <c r="E917" s="21"/>
     </row>
     <row r="918" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="17"/>
-      <c r="D918" s="77"/>
+      <c r="D918" s="74"/>
       <c r="E918" s="21"/>
     </row>
     <row r="919" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="17"/>
-      <c r="D919" s="77"/>
+      <c r="D919" s="74"/>
       <c r="E919" s="21"/>
     </row>
     <row r="920" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="17"/>
-      <c r="D920" s="77"/>
+      <c r="D920" s="74"/>
       <c r="E920" s="21"/>
     </row>
     <row r="921" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="17"/>
-      <c r="D921" s="77"/>
+      <c r="D921" s="74"/>
       <c r="E921" s="21"/>
     </row>
     <row r="922" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="17"/>
-      <c r="D922" s="77"/>
+      <c r="D922" s="74"/>
       <c r="E922" s="21"/>
     </row>
     <row r="923" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="17"/>
-      <c r="D923" s="77"/>
+      <c r="D923" s="74"/>
       <c r="E923" s="21"/>
     </row>
     <row r="924" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="17"/>
-      <c r="D924" s="77"/>
+      <c r="D924" s="74"/>
       <c r="E924" s="21"/>
     </row>
     <row r="925" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="17"/>
-      <c r="D925" s="77"/>
+      <c r="D925" s="74"/>
       <c r="E925" s="21"/>
     </row>
     <row r="926" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="17"/>
-      <c r="D926" s="77"/>
+      <c r="D926" s="74"/>
       <c r="E926" s="21"/>
     </row>
     <row r="927" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="17"/>
-      <c r="D927" s="77"/>
+      <c r="D927" s="74"/>
       <c r="E927" s="21"/>
     </row>
     <row r="928" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="17"/>
-      <c r="D928" s="77"/>
+      <c r="D928" s="74"/>
       <c r="E928" s="21"/>
     </row>
     <row r="929" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="17"/>
-      <c r="D929" s="77"/>
+      <c r="D929" s="74"/>
       <c r="E929" s="21"/>
     </row>
     <row r="930" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="17"/>
-      <c r="D930" s="77"/>
+      <c r="D930" s="74"/>
       <c r="E930" s="21"/>
     </row>
     <row r="931" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="17"/>
-      <c r="D931" s="77"/>
+      <c r="D931" s="74"/>
       <c r="E931" s="21"/>
     </row>
     <row r="932" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="17"/>
-      <c r="D932" s="77"/>
+      <c r="D932" s="74"/>
       <c r="E932" s="21"/>
     </row>
     <row r="933" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="17"/>
-      <c r="D933" s="77"/>
+      <c r="D933" s="74"/>
       <c r="E933" s="21"/>
     </row>
     <row r="934" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="17"/>
-      <c r="D934" s="77"/>
+      <c r="D934" s="74"/>
       <c r="E934" s="21"/>
     </row>
     <row r="935" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="17"/>
-      <c r="D935" s="77"/>
+      <c r="D935" s="74"/>
       <c r="E935" s="21"/>
     </row>
     <row r="936" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="17"/>
-      <c r="D936" s="77"/>
+      <c r="D936" s="74"/>
       <c r="E936" s="21"/>
     </row>
     <row r="937" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="17"/>
-      <c r="D937" s="77"/>
+      <c r="D937" s="74"/>
       <c r="E937" s="21"/>
     </row>
     <row r="938" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="17"/>
-      <c r="D938" s="77"/>
+      <c r="D938" s="74"/>
       <c r="E938" s="21"/>
     </row>
     <row r="939" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="17"/>
-      <c r="D939" s="77"/>
+      <c r="D939" s="74"/>
       <c r="E939" s="21"/>
     </row>
     <row r="940" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="17"/>
-      <c r="D940" s="77"/>
+      <c r="D940" s="74"/>
       <c r="E940" s="21"/>
     </row>
     <row r="941" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="17"/>
-      <c r="D941" s="77"/>
+      <c r="D941" s="74"/>
       <c r="E941" s="21"/>
     </row>
     <row r="942" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="17"/>
-      <c r="D942" s="77"/>
+      <c r="D942" s="74"/>
       <c r="E942" s="21"/>
     </row>
     <row r="943" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="17"/>
-      <c r="D943" s="77"/>
+      <c r="D943" s="74"/>
       <c r="E943" s="21"/>
     </row>
     <row r="944" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="17"/>
-      <c r="D944" s="77"/>
+      <c r="D944" s="74"/>
       <c r="E944" s="21"/>
     </row>
     <row r="945" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="17"/>
-      <c r="D945" s="77"/>
+      <c r="D945" s="74"/>
       <c r="E945" s="21"/>
     </row>
     <row r="946" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="17"/>
-      <c r="D946" s="77"/>
+      <c r="D946" s="74"/>
       <c r="E946" s="21"/>
     </row>
     <row r="947" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="17"/>
-      <c r="D947" s="77"/>
+      <c r="D947" s="74"/>
       <c r="E947" s="21"/>
     </row>
     <row r="948" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="17"/>
-      <c r="D948" s="77"/>
+      <c r="D948" s="74"/>
       <c r="E948" s="21"/>
     </row>
     <row r="949" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="17"/>
-      <c r="D949" s="77"/>
+      <c r="D949" s="74"/>
       <c r="E949" s="21"/>
     </row>
     <row r="950" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="17"/>
-      <c r="D950" s="77"/>
+      <c r="D950" s="74"/>
       <c r="E950" s="21"/>
     </row>
     <row r="951" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="17"/>
-      <c r="D951" s="77"/>
+      <c r="D951" s="74"/>
       <c r="E951" s="21"/>
     </row>
     <row r="952" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="17"/>
-      <c r="D952" s="77"/>
+      <c r="D952" s="74"/>
       <c r="E952" s="21"/>
     </row>
     <row r="953" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="17"/>
-      <c r="D953" s="77"/>
+      <c r="D953" s="74"/>
       <c r="E953" s="21"/>
     </row>
     <row r="954" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="17"/>
-      <c r="D954" s="77"/>
+      <c r="D954" s="74"/>
       <c r="E954" s="21"/>
     </row>
     <row r="955" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="17"/>
-      <c r="D955" s="77"/>
+      <c r="D955" s="74"/>
       <c r="E955" s="21"/>
     </row>
     <row r="956" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="17"/>
-      <c r="D956" s="77"/>
+      <c r="D956" s="74"/>
       <c r="E956" s="21"/>
     </row>
     <row r="957" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="17"/>
-      <c r="D957" s="77"/>
+      <c r="D957" s="74"/>
       <c r="E957" s="21"/>
     </row>
     <row r="958" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="17"/>
-      <c r="D958" s="77"/>
+      <c r="D958" s="74"/>
       <c r="E958" s="21"/>
     </row>
     <row r="959" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="17"/>
-      <c r="D959" s="77"/>
+      <c r="D959" s="74"/>
       <c r="E959" s="21"/>
     </row>
     <row r="960" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="17"/>
-      <c r="D960" s="77"/>
+      <c r="D960" s="74"/>
       <c r="E960" s="21"/>
     </row>
     <row r="961" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="17"/>
-      <c r="D961" s="77"/>
+      <c r="D961" s="74"/>
       <c r="E961" s="21"/>
     </row>
     <row r="962" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="17"/>
-      <c r="D962" s="77"/>
+      <c r="D962" s="74"/>
       <c r="E962" s="21"/>
     </row>
     <row r="963" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="17"/>
-      <c r="D963" s="77"/>
+      <c r="D963" s="74"/>
       <c r="E963" s="21"/>
     </row>
     <row r="964" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="17"/>
-      <c r="D964" s="77"/>
+      <c r="D964" s="74"/>
       <c r="E964" s="21"/>
     </row>
     <row r="965" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="17"/>
-      <c r="D965" s="77"/>
+      <c r="D965" s="74"/>
       <c r="E965" s="21"/>
     </row>
     <row r="966" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="17"/>
-      <c r="D966" s="77"/>
+      <c r="D966" s="74"/>
       <c r="E966" s="21"/>
     </row>
     <row r="967" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="17"/>
-      <c r="D967" s="77"/>
+      <c r="D967" s="74"/>
       <c r="E967" s="21"/>
     </row>
     <row r="968" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="17"/>
-      <c r="D968" s="77"/>
+      <c r="D968" s="74"/>
       <c r="E968" s="21"/>
     </row>
     <row r="969" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="17"/>
-      <c r="D969" s="77"/>
+      <c r="D969" s="74"/>
       <c r="E969" s="21"/>
     </row>
     <row r="970" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="17"/>
-      <c r="D970" s="77"/>
+      <c r="D970" s="74"/>
       <c r="E970" s="21"/>
     </row>
     <row r="971" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="17"/>
-      <c r="D971" s="77"/>
+      <c r="D971" s="74"/>
       <c r="E971" s="21"/>
     </row>
     <row r="972" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="17"/>
-      <c r="D972" s="77"/>
+      <c r="D972" s="74"/>
       <c r="E972" s="21"/>
     </row>
     <row r="973" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="17"/>
-      <c r="D973" s="77"/>
+      <c r="D973" s="74"/>
       <c r="E973" s="21"/>
     </row>
     <row r="974" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="17"/>
-      <c r="D974" s="77"/>
+      <c r="D974" s="74"/>
       <c r="E974" s="21"/>
     </row>
     <row r="975" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="17"/>
-      <c r="D975" s="77"/>
+      <c r="D975" s="74"/>
       <c r="E975" s="21"/>
     </row>
     <row r="976" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="17"/>
-      <c r="D976" s="77"/>
+      <c r="D976" s="74"/>
       <c r="E976" s="21"/>
     </row>
     <row r="977" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="17"/>
-      <c r="D977" s="77"/>
+      <c r="D977" s="74"/>
       <c r="E977" s="21"/>
     </row>
     <row r="978" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="17"/>
-      <c r="D978" s="77"/>
+      <c r="D978" s="74"/>
       <c r="E978" s="21"/>
     </row>
     <row r="979" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="17"/>
-      <c r="D979" s="77"/>
+      <c r="D979" s="74"/>
       <c r="E979" s="21"/>
     </row>
     <row r="980" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="17"/>
-      <c r="D980" s="77"/>
+      <c r="D980" s="74"/>
       <c r="E980" s="21"/>
     </row>
     <row r="981" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="17"/>
-      <c r="D981" s="77"/>
+      <c r="D981" s="74"/>
       <c r="E981" s="21"/>
     </row>
     <row r="982" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="17"/>
-      <c r="D982" s="77"/>
+      <c r="D982" s="74"/>
       <c r="E982" s="21"/>
     </row>
     <row r="983" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="17"/>
-      <c r="D983" s="77"/>
+      <c r="D983" s="74"/>
       <c r="E983" s="21"/>
     </row>
     <row r="984" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="17"/>
-      <c r="D984" s="77"/>
+      <c r="D984" s="74"/>
       <c r="E984" s="21"/>
     </row>
     <row r="985" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="17"/>
-      <c r="D985" s="77"/>
+      <c r="D985" s="74"/>
       <c r="E985" s="21"/>
     </row>
     <row r="986" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="17"/>
-      <c r="D986" s="77"/>
+      <c r="D986" s="74"/>
       <c r="E986" s="21"/>
     </row>
     <row r="987" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="17"/>
-      <c r="D987" s="77"/>
+      <c r="D987" s="74"/>
       <c r="E987" s="21"/>
     </row>
     <row r="988" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="17"/>
-      <c r="D988" s="77"/>
+      <c r="D988" s="74"/>
       <c r="E988" s="21"/>
     </row>
     <row r="989" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="17"/>
-      <c r="D989" s="77"/>
+      <c r="D989" s="74"/>
       <c r="E989" s="21"/>
     </row>
     <row r="990" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="17"/>
-      <c r="D990" s="77"/>
+      <c r="D990" s="74"/>
       <c r="E990" s="21"/>
     </row>
     <row r="991" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="17"/>
-      <c r="D991" s="77"/>
+      <c r="D991" s="74"/>
       <c r="E991" s="21"/>
     </row>
     <row r="992" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="17"/>
-      <c r="D992" s="77"/>
+      <c r="D992" s="74"/>
       <c r="E992" s="21"/>
     </row>
     <row r="993" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="17"/>
-      <c r="D993" s="77"/>
+      <c r="D993" s="74"/>
       <c r="E993" s="21"/>
     </row>
     <row r="994" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="17"/>
-      <c r="D994" s="77"/>
+      <c r="D994" s="74"/>
       <c r="E994" s="21"/>
     </row>
     <row r="995" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="17"/>
-      <c r="D995" s="77"/>
+      <c r="D995" s="74"/>
       <c r="E995" s="21"/>
     </row>
     <row r="996" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="17"/>
-      <c r="D996" s="77"/>
+      <c r="D996" s="74"/>
       <c r="E996" s="21"/>
     </row>
     <row r="997" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="17"/>
-      <c r="D997" s="77"/>
+      <c r="D997" s="74"/>
       <c r="E997" s="21"/>
     </row>
     <row r="998" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="17"/>
-      <c r="D998" s="77"/>
+      <c r="D998" s="74"/>
       <c r="E998" s="21"/>
     </row>
     <row r="999" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="17"/>
-      <c r="D999" s="77"/>
+      <c r="D999" s="74"/>
       <c r="E999" s="21"/>
     </row>
     <row r="1000" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="17"/>
-      <c r="D1000" s="77"/>
+      <c r="D1000" s="74"/>
       <c r="E1000" s="21"/>
     </row>
     <row r="1001" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="17"/>
-      <c r="D1001" s="77"/>
+      <c r="D1001" s="74"/>
       <c r="E1001" s="21"/>
     </row>
     <row r="1002" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1002" s="17"/>
-      <c r="D1002" s="77"/>
+      <c r="D1002" s="74"/>
       <c r="E1002" s="21"/>
     </row>
   </sheetData>
@@ -11470,109 +11609,119 @@
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:T53 AN32:AT53 AW40:BA53 U42:AM53 BD42:CC53">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="G8:T53 U42:AM53 AN32:AT53 AW40:BA53 BD42:CC51 BD53:CC53 BD52:BQ52 BT52:CC52">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 U8:W8 AG8:AT10 CD8:CE53 AG11:AM41 AB17:AE17 AP19:AT33 AJ20 AI20:AI21 AM21 AZ23:BA31 AW24:AW28 AX24:AY31 AW30:AW32 AY34:BA35 AW36:AW38 AX38:AZ38 CF41:CL41">
-    <cfRule type="expression" dxfId="19" priority="2">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 U8:W8 AG8:AT10 AB17:AE17 AP19:AT33 AG11:AM41 AZ23:BA31 AW24:AW28 AX24:AY31 AW30:AW32 AY34:BA35 AW36:AW38 AX38:AZ38 CF41:CL41 CD8:CE53">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U8:Y17 Z8:AA40">
+    <cfRule type="expression" dxfId="21" priority="7">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;W$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:Y17 Z8:AA8">
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:AA40">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AF16">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AF41 U41:AA41">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN11:AT17 AN18:BO18 AN19:AO31">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU20:AV53 AT26:AV28 AU34:AU35">
-    <cfRule type="expression" dxfId="12" priority="11">
+  <conditionalFormatting sqref="AT26:AV28 AU20:AV53">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:BC17 AU19:BC21 AW20:BC40">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB41:BC53">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD8:BO17 BP8:CC41 U16:Y40 BH19:BJ26 BD19:BG41 BK19:BO41 BH28:BJ41 BT52">
-    <cfRule type="expression" dxfId="9" priority="15">
+  <conditionalFormatting sqref="BD8:BO17 BP8:CC41 U16:Y40 BH19:BJ26 BD19:BG41 BK19:BO41 BH28:BJ41 BT52:BT53">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CD5 CF5:CK5 BX6 CE6">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF19:CJ40">
-    <cfRule type="expression" dxfId="5" priority="19">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF42:CJ52">
-    <cfRule type="expression" dxfId="4" priority="20">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF8:CL18">
-    <cfRule type="expression" dxfId="3" priority="21">
-      <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF53:CL53">
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="7" priority="25">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK19:CL52">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL5">
-    <cfRule type="expression" dxfId="0" priority="24">
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>AND(TODAY()&gt;=CL$5,TODAY()&lt;CM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU53:BV53">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(TODAY()&gt;=DD$5,TODAY()&lt;DE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF53:CJ53">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CK53:CL53">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR52:BS52">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;DB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Gantt_diagram_etel.xlsx
+++ b/Gantt_diagram_etel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kriszti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kriszti\2024_ib153l-15_etel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5440E-F0F0-451F-B980-9D478702091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E8B047-A670-47A9-A35F-B4358F735F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Étel</t>
   </si>
@@ -235,7 +235,10 @@
     <t>8.4.12. Prototípus kitelepítésének frissítése</t>
   </si>
   <si>
-    <t>8.4.11. Admin jogosultsághoz tartozó profil oldal létrehozása</t>
+    <t>8.4.11. Ételekhez köthető háttérlogika kialakítása</t>
+  </si>
+  <si>
+    <t>8.3.23. Admin jogosultsághoz profil oldal</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\.mm\.dd\."/>
     <numFmt numFmtId="168" formatCode="yyyy\.m\.d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,12 +354,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -671,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,11 +862,13 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -883,17 +882,297 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1422,9 +1701,9 @@
   </sheetPr>
   <dimension ref="A1:CL1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU51" sqref="BU51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CK41" sqref="CK41:CL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1626,7 +1905,7 @@
       <c r="CK4" s="79"/>
       <c r="CL4" s="80"/>
     </row>
-    <row r="5" spans="1:90" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:90" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="22" t="s">
         <v>9</v>
@@ -2062,7 +2341,7 @@
       <c r="CD6" s="30"/>
       <c r="CE6" s="30"/>
     </row>
-    <row r="7" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="31" t="s">
         <v>13</v>
@@ -2160,7 +2439,7 @@
       <c r="CK7" s="34"/>
       <c r="CL7" s="34"/>
     </row>
-    <row r="8" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="35" t="s">
         <v>14</v>
@@ -5359,7 +5638,7 @@
       <c r="CK39" s="38"/>
       <c r="CL39" s="38"/>
     </row>
-    <row r="40" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="57" t="s">
         <v>49</v>
@@ -5459,217 +5738,217 @@
       <c r="CK40" s="38"/>
       <c r="CL40" s="38"/>
     </row>
-    <row r="41" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="59">
+        <v>45573</v>
+      </c>
+      <c r="E41" s="59">
+        <v>45574</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="40"/>
+      <c r="BI41" s="40"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="30"/>
+      <c r="BM41" s="30"/>
+      <c r="BN41" s="30"/>
+      <c r="BO41" s="30"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="30"/>
+      <c r="BS41" s="30"/>
+      <c r="BT41" s="30"/>
+      <c r="BU41" s="30"/>
+      <c r="BV41" s="30"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="30"/>
+      <c r="BZ41" s="30"/>
+      <c r="CA41" s="30"/>
+      <c r="CB41" s="30"/>
+      <c r="CC41" s="30"/>
+      <c r="CD41" s="38"/>
+      <c r="CE41" s="38"/>
+      <c r="CF41" s="30"/>
+      <c r="CG41" s="30"/>
+      <c r="CH41" s="30"/>
+      <c r="CI41" s="30"/>
+      <c r="CJ41" s="30"/>
+      <c r="CK41" s="38"/>
+      <c r="CL41" s="38"/>
+    </row>
+    <row r="42" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67">
+      <c r="C42" s="66"/>
+      <c r="D42" s="67">
         <v>45610</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E42" s="67">
         <v>45630</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="34"/>
-      <c r="AR41" s="34"/>
-      <c r="AS41" s="34"/>
-      <c r="AT41" s="34"/>
-      <c r="AU41" s="34"/>
-      <c r="AV41" s="34"/>
-      <c r="AW41" s="34"/>
-      <c r="AX41" s="34"/>
-      <c r="AY41" s="34"/>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="34"/>
-      <c r="BB41" s="34"/>
-      <c r="BC41" s="34"/>
-      <c r="BD41" s="34"/>
-      <c r="BE41" s="34"/>
-      <c r="BF41" s="34"/>
-      <c r="BG41" s="34"/>
-      <c r="BH41" s="34"/>
-      <c r="BI41" s="34"/>
-      <c r="BJ41" s="34"/>
-      <c r="BK41" s="34"/>
-      <c r="BL41" s="34"/>
-      <c r="BM41" s="34"/>
-      <c r="BN41" s="34"/>
-      <c r="BO41" s="34"/>
-      <c r="BP41" s="34"/>
-      <c r="BQ41" s="34"/>
-      <c r="BR41" s="34"/>
-      <c r="BS41" s="34"/>
-      <c r="BT41" s="34"/>
-      <c r="BU41" s="34"/>
-      <c r="BV41" s="34"/>
-      <c r="BW41" s="34"/>
-      <c r="BX41" s="34"/>
-      <c r="BY41" s="34"/>
-      <c r="BZ41" s="34"/>
-      <c r="CA41" s="34"/>
-      <c r="CB41" s="34"/>
-      <c r="CC41" s="34"/>
-      <c r="CD41" s="34"/>
-      <c r="CE41" s="34"/>
-      <c r="CF41" s="34"/>
-      <c r="CG41" s="34"/>
-      <c r="CH41" s="34"/>
-      <c r="CI41" s="34"/>
-      <c r="CJ41" s="34"/>
-      <c r="CK41" s="34"/>
-      <c r="CL41" s="34"/>
-    </row>
-    <row r="42" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="70">
-        <v>45611</v>
-      </c>
-      <c r="E42" s="70">
-        <v>45612</v>
-      </c>
       <c r="F42" s="34"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="30"/>
-      <c r="AJ42" s="30"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="30"/>
-      <c r="AM42" s="30"/>
-      <c r="AN42" s="38"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="30"/>
-      <c r="AQ42" s="30"/>
-      <c r="AR42" s="30"/>
-      <c r="AS42" s="30"/>
-      <c r="AT42" s="30"/>
-      <c r="AU42" s="38"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="30"/>
-      <c r="AX42" s="30"/>
-      <c r="AY42" s="30"/>
-      <c r="AZ42" s="30"/>
-      <c r="BA42" s="30"/>
-      <c r="BB42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="30"/>
-      <c r="BE42" s="30"/>
-      <c r="BF42" s="30"/>
-      <c r="BG42" s="30"/>
-      <c r="BH42" s="30"/>
-      <c r="BI42" s="38"/>
-      <c r="BJ42" s="38"/>
-      <c r="BK42" s="30"/>
-      <c r="BL42" s="30"/>
-      <c r="BM42" s="30"/>
-      <c r="BN42" s="30"/>
-      <c r="BO42" s="51"/>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="38"/>
-      <c r="BR42" s="30"/>
-      <c r="BS42" s="30"/>
-      <c r="BT42" s="30"/>
-      <c r="BU42" s="30"/>
-      <c r="BV42" s="30"/>
-      <c r="BW42" s="38"/>
-      <c r="BX42" s="38"/>
-      <c r="BY42" s="30"/>
-      <c r="BZ42" s="30"/>
-      <c r="CA42" s="30"/>
-      <c r="CB42" s="30"/>
-      <c r="CC42" s="30"/>
-      <c r="CD42" s="38"/>
-      <c r="CE42" s="38"/>
-      <c r="CF42" s="30"/>
-      <c r="CG42" s="30"/>
-      <c r="CH42" s="30"/>
-      <c r="CI42" s="30"/>
-      <c r="CJ42" s="30"/>
-      <c r="CK42" s="38"/>
-      <c r="CL42" s="38"/>
-    </row>
-    <row r="43" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="34"/>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="34"/>
+      <c r="AO42" s="34"/>
+      <c r="AP42" s="34"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="34"/>
+      <c r="AS42" s="34"/>
+      <c r="AT42" s="34"/>
+      <c r="AU42" s="34"/>
+      <c r="AV42" s="34"/>
+      <c r="AW42" s="34"/>
+      <c r="AX42" s="34"/>
+      <c r="AY42" s="34"/>
+      <c r="AZ42" s="34"/>
+      <c r="BA42" s="34"/>
+      <c r="BB42" s="34"/>
+      <c r="BC42" s="34"/>
+      <c r="BD42" s="34"/>
+      <c r="BE42" s="34"/>
+      <c r="BF42" s="34"/>
+      <c r="BG42" s="34"/>
+      <c r="BH42" s="34"/>
+      <c r="BI42" s="34"/>
+      <c r="BJ42" s="34"/>
+      <c r="BK42" s="34"/>
+      <c r="BL42" s="34"/>
+      <c r="BM42" s="34"/>
+      <c r="BN42" s="34"/>
+      <c r="BO42" s="34"/>
+      <c r="BP42" s="34"/>
+      <c r="BQ42" s="34"/>
+      <c r="BR42" s="34"/>
+      <c r="BS42" s="34"/>
+      <c r="BT42" s="34"/>
+      <c r="BU42" s="34"/>
+      <c r="BV42" s="34"/>
+      <c r="BW42" s="34"/>
+      <c r="BX42" s="34"/>
+      <c r="BY42" s="34"/>
+      <c r="BZ42" s="34"/>
+      <c r="CA42" s="34"/>
+      <c r="CB42" s="34"/>
+      <c r="CC42" s="34"/>
+      <c r="CD42" s="34"/>
+      <c r="CE42" s="34"/>
+      <c r="CF42" s="34"/>
+      <c r="CG42" s="34"/>
+      <c r="CH42" s="34"/>
+      <c r="CI42" s="34"/>
+      <c r="CJ42" s="34"/>
+      <c r="CK42" s="34"/>
+      <c r="CL42" s="34"/>
+    </row>
+    <row r="43" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="69" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D43" s="70">
+        <v>45611</v>
+      </c>
+      <c r="E43" s="70">
         <v>45612</v>
-      </c>
-      <c r="E43" s="71">
-        <v>45613</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="30"/>
@@ -5732,9 +6011,9 @@
       <c r="BL43" s="30"/>
       <c r="BM43" s="30"/>
       <c r="BN43" s="30"/>
-      <c r="BO43" s="30"/>
-      <c r="BP43" s="52"/>
-      <c r="BQ43" s="52"/>
+      <c r="BO43" s="51"/>
+      <c r="BP43" s="51"/>
+      <c r="BQ43" s="38"/>
       <c r="BR43" s="30"/>
       <c r="BS43" s="30"/>
       <c r="BT43" s="30"/>
@@ -5757,19 +6036,19 @@
       <c r="CK43" s="38"/>
       <c r="CL43" s="38"/>
     </row>
-    <row r="44" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" s="70">
         <v>45612</v>
       </c>
-      <c r="E44" s="70">
-        <v>45614</v>
+      <c r="E44" s="71">
+        <v>45613</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="30"/>
@@ -5833,9 +6112,9 @@
       <c r="BM44" s="30"/>
       <c r="BN44" s="30"/>
       <c r="BO44" s="30"/>
-      <c r="BP44" s="60"/>
-      <c r="BQ44" s="60"/>
-      <c r="BR44" s="49"/>
+      <c r="BP44" s="52"/>
+      <c r="BQ44" s="52"/>
+      <c r="BR44" s="30"/>
       <c r="BS44" s="30"/>
       <c r="BT44" s="30"/>
       <c r="BU44" s="30"/>
@@ -5857,19 +6136,19 @@
       <c r="CK44" s="38"/>
       <c r="CL44" s="38"/>
     </row>
-    <row r="45" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="70">
         <v>45612</v>
       </c>
       <c r="E45" s="70">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="30"/>
@@ -5933,9 +6212,9 @@
       <c r="BM45" s="30"/>
       <c r="BN45" s="30"/>
       <c r="BO45" s="30"/>
-      <c r="BP45" s="52"/>
-      <c r="BQ45" s="52"/>
-      <c r="BR45" s="52"/>
+      <c r="BP45" s="60"/>
+      <c r="BQ45" s="60"/>
+      <c r="BR45" s="49"/>
       <c r="BS45" s="30"/>
       <c r="BT45" s="30"/>
       <c r="BU45" s="30"/>
@@ -5957,19 +6236,19 @@
       <c r="CK45" s="38"/>
       <c r="CL45" s="38"/>
     </row>
-    <row r="46" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D46" s="70">
         <v>45612</v>
       </c>
       <c r="E46" s="70">
-        <v>45613</v>
+        <v>45615</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="30"/>
@@ -6033,9 +6312,9 @@
       <c r="BM46" s="30"/>
       <c r="BN46" s="30"/>
       <c r="BO46" s="30"/>
-      <c r="BP46" s="47"/>
-      <c r="BQ46" s="47"/>
-      <c r="BR46" s="30"/>
+      <c r="BP46" s="52"/>
+      <c r="BQ46" s="52"/>
+      <c r="BR46" s="52"/>
       <c r="BS46" s="30"/>
       <c r="BT46" s="30"/>
       <c r="BU46" s="30"/>
@@ -6057,19 +6336,19 @@
       <c r="CK46" s="38"/>
       <c r="CL46" s="38"/>
     </row>
-    <row r="47" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D47" s="70">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="E47" s="70">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="30"/>
@@ -6133,10 +6412,10 @@
       <c r="BM47" s="30"/>
       <c r="BN47" s="30"/>
       <c r="BO47" s="30"/>
-      <c r="BP47" s="38"/>
-      <c r="BQ47" s="38"/>
+      <c r="BP47" s="47"/>
+      <c r="BQ47" s="47"/>
       <c r="BR47" s="30"/>
-      <c r="BS47" s="47"/>
+      <c r="BS47" s="30"/>
       <c r="BT47" s="30"/>
       <c r="BU47" s="30"/>
       <c r="BV47" s="30"/>
@@ -6157,19 +6436,19 @@
       <c r="CK47" s="38"/>
       <c r="CL47" s="38"/>
     </row>
-    <row r="48" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="70">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E48" s="70">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="30"/>
@@ -6235,8 +6514,8 @@
       <c r="BO48" s="30"/>
       <c r="BP48" s="38"/>
       <c r="BQ48" s="38"/>
-      <c r="BR48" s="47"/>
-      <c r="BS48" s="30"/>
+      <c r="BR48" s="30"/>
+      <c r="BS48" s="47"/>
       <c r="BT48" s="30"/>
       <c r="BU48" s="30"/>
       <c r="BV48" s="30"/>
@@ -6257,19 +6536,19 @@
       <c r="CK48" s="38"/>
       <c r="CL48" s="38"/>
     </row>
-    <row r="49" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="70">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="E49" s="70">
-        <v>45615</v>
+        <v>45614</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="30"/>
@@ -6335,8 +6614,8 @@
       <c r="BO49" s="30"/>
       <c r="BP49" s="38"/>
       <c r="BQ49" s="38"/>
-      <c r="BR49" s="30"/>
-      <c r="BS49" s="72"/>
+      <c r="BR49" s="47"/>
+      <c r="BS49" s="30"/>
       <c r="BT49" s="30"/>
       <c r="BU49" s="30"/>
       <c r="BV49" s="30"/>
@@ -6357,19 +6636,19 @@
       <c r="CK49" s="38"/>
       <c r="CL49" s="38"/>
     </row>
-    <row r="50" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="70">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="E50" s="70">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="30"/>
@@ -6387,7 +6666,7 @@
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
       <c r="U50" s="30"/>
-      <c r="V50" s="86"/>
+      <c r="V50" s="30"/>
       <c r="W50" s="30"/>
       <c r="X50" s="30"/>
       <c r="Y50" s="30"/>
@@ -6433,10 +6712,10 @@
       <c r="BM50" s="30"/>
       <c r="BN50" s="30"/>
       <c r="BO50" s="30"/>
-      <c r="BP50" s="40"/>
+      <c r="BP50" s="38"/>
       <c r="BQ50" s="38"/>
       <c r="BR50" s="30"/>
-      <c r="BS50" s="30"/>
+      <c r="BS50" s="72"/>
       <c r="BT50" s="30"/>
       <c r="BU50" s="30"/>
       <c r="BV50" s="30"/>
@@ -6460,16 +6739,16 @@
     <row r="51" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="70">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="E51" s="70">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="30"/>
@@ -6487,7 +6766,7 @@
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
       <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
+      <c r="V51" s="77"/>
       <c r="W51" s="30"/>
       <c r="X51" s="30"/>
       <c r="Y51" s="30"/>
@@ -6533,9 +6812,9 @@
       <c r="BM51" s="30"/>
       <c r="BN51" s="30"/>
       <c r="BO51" s="30"/>
-      <c r="BP51" s="38"/>
-      <c r="BQ51" s="40"/>
-      <c r="BR51" s="40"/>
+      <c r="BP51" s="40"/>
+      <c r="BQ51" s="38"/>
+      <c r="BR51" s="30"/>
       <c r="BS51" s="30"/>
       <c r="BT51" s="30"/>
       <c r="BU51" s="30"/>
@@ -6560,16 +6839,16 @@
     <row r="52" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="70">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="E52" s="70">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="30"/>
@@ -6634,9 +6913,9 @@
       <c r="BN52" s="30"/>
       <c r="BO52" s="30"/>
       <c r="BP52" s="38"/>
-      <c r="BQ52" s="38"/>
+      <c r="BQ52" s="40"/>
       <c r="BR52" s="40"/>
-      <c r="BS52" s="40"/>
+      <c r="BS52" s="30"/>
       <c r="BT52" s="30"/>
       <c r="BU52" s="30"/>
       <c r="BV52" s="30"/>
@@ -6660,16 +6939,16 @@
     <row r="53" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="85">
-        <v>45616</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="70">
+        <v>45614</v>
+      </c>
+      <c r="E53" s="70">
+        <v>45615</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="30"/>
@@ -6686,11 +6965,11 @@
       <c r="R53" s="30"/>
       <c r="S53" s="38"/>
       <c r="T53" s="38"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
       <c r="Z53" s="38"/>
       <c r="AA53" s="38"/>
       <c r="AB53" s="30"/>
@@ -6735,9 +7014,9 @@
       <c r="BO53" s="30"/>
       <c r="BP53" s="38"/>
       <c r="BQ53" s="38"/>
-      <c r="BR53" s="30"/>
-      <c r="BS53" s="30"/>
-      <c r="BT53" s="51"/>
+      <c r="BR53" s="40"/>
+      <c r="BS53" s="40"/>
+      <c r="BT53" s="30"/>
       <c r="BU53" s="30"/>
       <c r="BV53" s="30"/>
       <c r="BW53" s="38"/>
@@ -6759,105 +7038,199 @@
     </row>
     <row r="54" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="17"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="73"/>
-      <c r="AD54" s="73"/>
-      <c r="AE54" s="73"/>
-      <c r="AF54" s="73"/>
-      <c r="AG54" s="73"/>
-      <c r="AH54" s="73"/>
-      <c r="AI54" s="73"/>
-      <c r="AJ54" s="73"/>
-      <c r="AK54" s="73"/>
-      <c r="AL54" s="73"/>
-      <c r="AM54" s="73"/>
-      <c r="AN54" s="73"/>
-      <c r="AO54" s="73"/>
-      <c r="AP54" s="73"/>
-      <c r="AQ54" s="73"/>
-      <c r="AR54" s="73"/>
-      <c r="AS54" s="73"/>
-      <c r="AT54" s="73"/>
-      <c r="AU54" s="73"/>
-      <c r="AV54" s="73"/>
-      <c r="AW54" s="73"/>
-      <c r="AX54" s="73"/>
-      <c r="AY54" s="73"/>
-      <c r="AZ54" s="73"/>
-      <c r="BA54" s="73"/>
-      <c r="BB54" s="73"/>
-      <c r="BC54" s="73"/>
-      <c r="BD54" s="73"/>
-      <c r="BE54" s="73"/>
-      <c r="BF54" s="73"/>
-      <c r="BG54" s="73"/>
-      <c r="BH54" s="73"/>
-      <c r="BI54" s="73"/>
-      <c r="BJ54" s="73"/>
-      <c r="BK54" s="73"/>
-      <c r="BL54" s="73"/>
-      <c r="BM54" s="73"/>
-      <c r="BN54" s="73"/>
-      <c r="BO54" s="73"/>
-      <c r="BP54" s="73"/>
-      <c r="BQ54" s="73"/>
-      <c r="BR54" s="73"/>
-      <c r="BS54" s="73"/>
-      <c r="BT54" s="73"/>
-      <c r="BU54" s="73"/>
-      <c r="BV54" s="73"/>
-      <c r="BW54" s="73"/>
-      <c r="BX54" s="73"/>
-      <c r="BY54" s="73"/>
-      <c r="BZ54" s="73"/>
-      <c r="CA54" s="73"/>
-      <c r="CB54" s="73"/>
-      <c r="CC54" s="73"/>
-      <c r="CD54" s="73"/>
-      <c r="CE54" s="73"/>
-      <c r="CF54" s="73"/>
-      <c r="CG54" s="73"/>
-      <c r="CH54" s="73"/>
-      <c r="CI54" s="73"/>
-      <c r="CJ54" s="73"/>
-      <c r="CK54" s="73"/>
-      <c r="CL54" s="73"/>
-    </row>
-    <row r="55" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="76">
+        <v>45616</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="77"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="38"/>
+      <c r="AH54" s="38"/>
+      <c r="AI54" s="30"/>
+      <c r="AJ54" s="30"/>
+      <c r="AK54" s="30"/>
+      <c r="AL54" s="30"/>
+      <c r="AM54" s="30"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="30"/>
+      <c r="AQ54" s="30"/>
+      <c r="AR54" s="30"/>
+      <c r="AS54" s="30"/>
+      <c r="AT54" s="30"/>
+      <c r="AU54" s="38"/>
+      <c r="AV54" s="38"/>
+      <c r="AW54" s="30"/>
+      <c r="AX54" s="30"/>
+      <c r="AY54" s="30"/>
+      <c r="AZ54" s="30"/>
+      <c r="BA54" s="30"/>
+      <c r="BB54" s="38"/>
+      <c r="BC54" s="38"/>
+      <c r="BD54" s="30"/>
+      <c r="BE54" s="30"/>
+      <c r="BF54" s="30"/>
+      <c r="BG54" s="30"/>
+      <c r="BH54" s="30"/>
+      <c r="BI54" s="38"/>
+      <c r="BJ54" s="38"/>
+      <c r="BK54" s="30"/>
+      <c r="BL54" s="30"/>
+      <c r="BM54" s="30"/>
+      <c r="BN54" s="30"/>
+      <c r="BO54" s="30"/>
+      <c r="BP54" s="38"/>
+      <c r="BQ54" s="38"/>
+      <c r="BR54" s="30"/>
+      <c r="BS54" s="30"/>
+      <c r="BT54" s="51"/>
+      <c r="BU54" s="30"/>
+      <c r="BV54" s="30"/>
+      <c r="BW54" s="38"/>
+      <c r="BX54" s="38"/>
+      <c r="BY54" s="30"/>
+      <c r="BZ54" s="30"/>
+      <c r="CA54" s="30"/>
+      <c r="CB54" s="30"/>
+      <c r="CC54" s="30"/>
+      <c r="CD54" s="38"/>
+      <c r="CE54" s="38"/>
+      <c r="CF54" s="30"/>
+      <c r="CG54" s="30"/>
+      <c r="CH54" s="30"/>
+      <c r="CI54" s="30"/>
+      <c r="CJ54" s="30"/>
+      <c r="CK54" s="38"/>
+      <c r="CL54" s="38"/>
+    </row>
+    <row r="55" spans="1:90" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="76"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="73"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="73"/>
+      <c r="AC55" s="73"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="73"/>
+      <c r="AF55" s="73"/>
+      <c r="AG55" s="73"/>
+      <c r="AH55" s="73"/>
+      <c r="AI55" s="73"/>
+      <c r="AJ55" s="73"/>
+      <c r="AK55" s="73"/>
+      <c r="AL55" s="73"/>
+      <c r="AM55" s="73"/>
+      <c r="AN55" s="73"/>
+      <c r="AO55" s="73"/>
+      <c r="AP55" s="73"/>
+      <c r="AQ55" s="73"/>
+      <c r="AR55" s="73"/>
+      <c r="AS55" s="73"/>
+      <c r="AT55" s="73"/>
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="73"/>
+      <c r="AW55" s="73"/>
+      <c r="AX55" s="73"/>
+      <c r="AY55" s="73"/>
+      <c r="AZ55" s="73"/>
+      <c r="BA55" s="73"/>
+      <c r="BB55" s="73"/>
+      <c r="BC55" s="73"/>
+      <c r="BD55" s="73"/>
+      <c r="BE55" s="73"/>
+      <c r="BF55" s="73"/>
+      <c r="BG55" s="73"/>
+      <c r="BH55" s="73"/>
+      <c r="BI55" s="73"/>
+      <c r="BJ55" s="73"/>
+      <c r="BK55" s="73"/>
+      <c r="BL55" s="73"/>
+      <c r="BM55" s="73"/>
+      <c r="BN55" s="73"/>
+      <c r="BO55" s="73"/>
+      <c r="BP55" s="73"/>
+      <c r="BQ55" s="73"/>
+      <c r="BR55" s="73"/>
+      <c r="BS55" s="73"/>
+      <c r="BT55" s="73"/>
+      <c r="BU55" s="73"/>
+      <c r="BV55" s="73"/>
+      <c r="BW55" s="73"/>
+      <c r="BX55" s="73"/>
+      <c r="BY55" s="73"/>
+      <c r="BZ55" s="73"/>
+      <c r="CA55" s="73"/>
+      <c r="CB55" s="73"/>
+      <c r="CC55" s="73"/>
+      <c r="CD55" s="73"/>
+      <c r="CE55" s="73"/>
+      <c r="CF55" s="73"/>
+      <c r="CG55" s="73"/>
+      <c r="CH55" s="73"/>
+      <c r="CI55" s="73"/>
+      <c r="CJ55" s="73"/>
+      <c r="CK55" s="73"/>
+      <c r="CL55" s="73"/>
     </row>
     <row r="56" spans="1:90" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
-      <c r="C56" s="77"/>
+      <c r="C56" s="75"/>
       <c r="D56" s="74"/>
       <c r="E56" s="21"/>
     </row>
@@ -11609,119 +11982,234 @@
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:T53 U42:AM53 AN32:AT53 AW40:BA53 BD42:CC51 BD53:CC53 BD52:BQ52 BT52:CC52">
-    <cfRule type="expression" dxfId="23" priority="5">
+  <conditionalFormatting sqref="BD43:CC52 BD53:BQ53 BT53:CC53 BD54:CC54 G8:T40 G42:T42 AN32:AT40 G43:AT54 AW40:BA40 AU42:BA54 CD8:CE40 CD42:CE54 AG11:AM40 AB18:AF40 AB42:AT42 AU20:AV40 CK19:CL40 CK42:CL54">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 U8:W8 AG8:AT10 AB17:AE17 AP19:AT33 AG11:AM41 AZ23:BA31 AW24:AW28 AX24:AY31 AW30:AW32 AY34:BA35 AW36:AW38 AX38:AZ38 CF41:CL41 CD8:CE53">
-    <cfRule type="expression" dxfId="22" priority="6">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 U8:W8 AG8:AT10 AB17:AE17 AP19:AT33 AZ23:BA31 AW24:AW28 AX24:AY31 AW30:AW32 AY34:BA35 AW36:AW38 AX38:AZ38 CF42:CL42">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:Y17 Z8:AA40">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;W$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AF16">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AF41 U41:AA41">
-    <cfRule type="expression" dxfId="18" priority="12">
+  <conditionalFormatting sqref="U42:AA42">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN11:AT17 AN18:BO18 AN19:AO31">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT26:AV28 AU20:AV53">
-    <cfRule type="expression" dxfId="16" priority="15">
+  <conditionalFormatting sqref="AT26:AV28">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU8:BC17 AU19:BC21 AW20:BC40">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB41:BC53">
-    <cfRule type="expression" dxfId="14" priority="18">
+  <conditionalFormatting sqref="BB42:BC54">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD8:BO17 BP8:CC41 U16:Y40 BH19:BJ26 BD19:BG41 BK19:BO41 BH28:BJ41 BT52:BT53">
-    <cfRule type="expression" dxfId="13" priority="19">
+  <conditionalFormatting sqref="BD8:BO17 U16:Y40 BH19:BJ26 BT53:BT54 BP8:CC40 BD19:BG40 BK19:BO40 BH28:BJ40 BD42:CC42">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BR53:BS53">
+    <cfRule type="expression" dxfId="34" priority="27">
+      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;DB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU54:BV54">
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>AND(TODAY()&gt;=DD$5,TODAY()&lt;DE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BX5">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CD5 CF5:CK5 BX6 CE6">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5">
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="30" priority="48">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF19:CJ40">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="29" priority="49">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF42:CJ52">
-    <cfRule type="expression" dxfId="8" priority="24">
+  <conditionalFormatting sqref="CF43:CJ54">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF8:CL18">
-    <cfRule type="expression" dxfId="7" priority="25">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK19:CL52">
-    <cfRule type="expression" dxfId="5" priority="27">
-      <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="CL5">
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>AND(TODAY()&gt;=CL$5,TODAY()&lt;CM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU53:BV53">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(TODAY()&gt;=DD$5,TODAY()&lt;DE$5)</formula>
+  <conditionalFormatting sqref="G41:K41">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF53:CJ53">
+  <conditionalFormatting sqref="L41:M41">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:R41">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41:T41">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;T$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH41:BI41">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>AND(TODAY()&gt;=CQ$5,TODAY()&lt;CR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U41:Y41">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z41:AA41">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB41:AF41">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41:AH41">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI41:AM41">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN41:AO41">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP41:AT41">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU41:AV41">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW41:BA41">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW41:BA41">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB41:BC41">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD41:BG41">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>AND(TODAY()&gt;=CM$5,TODAY()&lt;CN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK41:BO41">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(TODAY()&gt;=CT$5,TODAY()&lt;CU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ41">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(TODAY()&gt;=CS$5,TODAY()&lt;CT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP41:BQ41">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(TODAY()&gt;=CY$5,TODAY()&lt;CZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR41:BV41">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;DB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW41:BX41">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND(TODAY()&gt;=DF$5,TODAY()&lt;DG$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY41:CC41">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(TODAY()&gt;=DH$5,TODAY()&lt;DI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD41:CE41">
     <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=CD$5,TODAY()&lt;CE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF41:CJ41">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK53:CL53">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="CK41:CL41">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR52:BS52">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;DB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Gantt_diagram_etel.xlsx
+++ b/Gantt_diagram_etel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kriszti\2024_ib153l-15_etel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E8B047-A670-47A9-A35F-B4358F735F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ACBF80-E22B-4D2A-8BBC-1689EF1B8875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -886,163 +886,7 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1701,9 +1545,9 @@
   </sheetPr>
   <dimension ref="A1:CL1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CK41" sqref="CK41:CL41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" activeCellId="1" sqref="C26 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5244,7 +5088,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D36" s="59">
         <v>45598</v>
@@ -5300,7 +5144,7 @@
       <c r="AY36" s="30"/>
       <c r="AZ36" s="30"/>
       <c r="BA36" s="30"/>
-      <c r="BB36" s="52"/>
+      <c r="BB36" s="51"/>
       <c r="BC36" s="38"/>
       <c r="BD36" s="30"/>
       <c r="BE36" s="30"/>
@@ -5344,7 +5188,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D37" s="59">
         <v>45598</v>
@@ -5400,8 +5244,8 @@
       <c r="AY37" s="30"/>
       <c r="AZ37" s="30"/>
       <c r="BA37" s="30"/>
-      <c r="BB37" s="52"/>
-      <c r="BC37" s="52"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
       <c r="BD37" s="30"/>
       <c r="BE37" s="30"/>
       <c r="BF37" s="30"/>
@@ -6442,7 +6286,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="70">
         <v>45615</v>
@@ -6515,7 +6359,7 @@
       <c r="BP48" s="38"/>
       <c r="BQ48" s="38"/>
       <c r="BR48" s="30"/>
-      <c r="BS48" s="47"/>
+      <c r="BS48" s="40"/>
       <c r="BT48" s="30"/>
       <c r="BU48" s="30"/>
       <c r="BV48" s="30"/>
@@ -6542,7 +6386,7 @@
         <v>57</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" s="70">
         <v>45614</v>
@@ -6614,7 +6458,7 @@
       <c r="BO49" s="30"/>
       <c r="BP49" s="38"/>
       <c r="BQ49" s="38"/>
-      <c r="BR49" s="47"/>
+      <c r="BR49" s="40"/>
       <c r="BS49" s="30"/>
       <c r="BT49" s="30"/>
       <c r="BU49" s="30"/>
@@ -11982,234 +11826,174 @@
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="BD43:CC52 BD53:BQ53 BT53:CC53 BD54:CC54 G8:T40 G42:T42 AN32:AT40 G43:AT54 AW40:BA40 AU42:BA54 CD8:CE40 CD42:CE54 AG11:AM40 AB18:AF40 AB42:AT42 AU20:AV40 CK19:CL40 CK42:CL54">
-    <cfRule type="expression" dxfId="45" priority="31">
+  <conditionalFormatting sqref="G8:T41">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:BW6 BY6:CD6 U8:W8 AG8:AT10 AB17:AE17 AP19:AT33 AZ23:BA31 AW24:AW28 AX24:AY31 AW30:AW32 AY34:BA35 AW36:AW38 AX38:AZ38 CF42:CL42">
-    <cfRule type="expression" dxfId="44" priority="32">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:Y17 Z8:AA40">
-    <cfRule type="expression" dxfId="43" priority="33">
+  <conditionalFormatting sqref="U8:Y17">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U16:Y41">
+    <cfRule type="expression" dxfId="30" priority="23">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;W$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:AA41">
+    <cfRule type="expression" dxfId="28" priority="22">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AF16">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U42:AA42">
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+  <conditionalFormatting sqref="AB18:AF41">
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11:AM40 AN32:AT40 G42:BA54 BD53:BQ53 BT53:CC53 BD54:CC54 BD43:CC52">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41:AT41">
+    <cfRule type="expression" dxfId="24" priority="17">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN11:AT17 AN18:BO18 AN19:AO31">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="23" priority="42">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT26:AV28">
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="22" priority="43">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU8:BC17 AU19:BC21 AW20:BC40">
-    <cfRule type="expression" dxfId="37" priority="43">
+  <conditionalFormatting sqref="AU20:AV41">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB42:BC54">
-    <cfRule type="expression" dxfId="36" priority="44">
+  <conditionalFormatting sqref="AU8:BC17 AU19:BC21 AW20:BC35 AW38:BC40 BC36 AW36:BA37">
+    <cfRule type="expression" dxfId="20" priority="45">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW40:BA41">
+    <cfRule type="expression" dxfId="19" priority="14">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB41:BC54">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD8:BO17 U16:Y40 BH19:BJ26 BT53:BT54 BP8:CC40 BD19:BG40 BK19:BO40 BH28:BJ40 BD42:CC42">
-    <cfRule type="expression" dxfId="35" priority="45">
-      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+  <conditionalFormatting sqref="BD19:BG41">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>AND(TODAY()&gt;=CM$5,TODAY()&lt;CN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD8:BO17 BH19:BJ26 BD42:CC42 BT53:BT54">
+    <cfRule type="expression" dxfId="16" priority="47">
+      <formula>AND(TODAY()&gt;=CM$5,TODAY()&lt;CN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH28:BJ41">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>AND(TODAY()&gt;=CQ$5,TODAY()&lt;CR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK19:BO41">
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>AND(TODAY()&gt;=CT$5,TODAY()&lt;CU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP8:CC41">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>AND(TODAY()&gt;=CY$5,TODAY()&lt;CZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR53:BS53">
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="12" priority="29">
       <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;DB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU54:BV54">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>AND(TODAY()&gt;=DD$5,TODAY()&lt;DE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="10" priority="48">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CD5 CF5:CK5 BX6 CE6">
-    <cfRule type="expression" dxfId="31" priority="47">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="CD8:CE54">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>AND(TODAY()&gt;=CD$5,TODAY()&lt;CE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="CE5">
-    <cfRule type="expression" dxfId="30" priority="48">
+    <cfRule type="expression" dxfId="7" priority="50">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF19:CJ40">
-    <cfRule type="expression" dxfId="29" priority="49">
+  <conditionalFormatting sqref="CF19:CJ41">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF43:CJ54">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="5" priority="31">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF8:CL18">
-    <cfRule type="expression" dxfId="27" priority="51">
+    <cfRule type="expression" dxfId="4" priority="53">
       <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="CK19:CL54">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="CL5">
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="2" priority="56">
       <formula>AND(TODAY()&gt;=CL$5,TODAY()&lt;CM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:K41">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41:M41">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N41:R41">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S41:T41">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;T$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH41:BI41">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>AND(TODAY()&gt;=CQ$5,TODAY()&lt;CR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U41:Y41">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z41:AA41">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB41:AF41">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AH41">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI41:AM41">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>AND(TODAY()&gt;=AI$5,TODAY()&lt;AJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN41:AO41">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP41:AT41">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU41:AV41">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW41:BA41">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW41:BA41">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB41:BC41">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="BB36">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD41:BG41">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>AND(TODAY()&gt;=CM$5,TODAY()&lt;CN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK41:BO41">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(TODAY()&gt;=CT$5,TODAY()&lt;CU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ41">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(TODAY()&gt;=CS$5,TODAY()&lt;CT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP41:BQ41">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(TODAY()&gt;=CY$5,TODAY()&lt;CZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR41:BV41">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(TODAY()&gt;=DA$5,TODAY()&lt;DB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW41:BX41">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(TODAY()&gt;=DF$5,TODAY()&lt;DG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY41:CC41">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(TODAY()&gt;=DH$5,TODAY()&lt;DI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD41:CE41">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=CD$5,TODAY()&lt;CE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF41:CJ41">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(TODAY()&gt;=CF$5,TODAY()&lt;CG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CK41:CL41">
+  <conditionalFormatting sqref="BB37:BC37">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
